--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="125">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -514,6 +514,18 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A     FEBRERO           2 0 2 3</t>
+  </si>
+  <si>
+    <t>JAMON-POLLO-SALCHICHONERIA -QUESOS- CHORIZO</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>MAIZ-POLLO-JAMON-QUESOS-CREMA-LONGANIZA</t>
   </si>
 </sst>
 </file>
@@ -2612,6 +2624,81 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2644,81 +2731,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3991,23 +4003,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4017,24 +4029,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4049,14 +4061,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4066,11 +4078,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5796,11 +5808,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="330">
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5808,7 +5820,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="342">
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5829,10 +5841,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5887,11 +5899,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6316,26 +6328,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="341"/>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6344,22 +6356,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="336"/>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6400,11 +6412,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6421,22 +6433,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="329"/>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6580,6 +6592,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6596,12 +6614,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8939,7 +8951,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8965,23 +8977,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8991,24 +9003,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9023,14 +9035,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9040,11 +9052,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9054,37 +9066,41 @@
         <v>44956</v>
       </c>
       <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34"/>
+        <v>15098</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="E5" s="35">
         <v>44956</v>
       </c>
       <c r="F5" s="36">
-        <v>0</v>
+        <v>128030</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="38">
         <v>44956</v>
       </c>
       <c r="I5" s="39">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="41"/>
       <c r="L5" s="13"/>
       <c r="M5" s="42">
-        <v>0</v>
+        <f>10000+42400+13905.5</f>
+        <v>66305.5</v>
       </c>
       <c r="N5" s="43">
-        <v>0</v>
+        <v>45922</v>
       </c>
       <c r="P5" s="44">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>128033.5</v>
       </c>
       <c r="Q5" s="45">
-        <v>0</v>
+        <f t="shared" ref="Q5:Q47" si="0">P5-F5</f>
+        <v>3.5</v>
       </c>
       <c r="R5" s="46">
         <v>0</v>
@@ -9096,37 +9112,39 @@
         <v>44957</v>
       </c>
       <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="47"/>
+        <v>11767.5</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>122</v>
+      </c>
       <c r="E6" s="35">
         <v>44957</v>
       </c>
       <c r="F6" s="36">
-        <v>0</v>
+        <v>121278</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38">
         <v>44957</v>
       </c>
       <c r="I6" s="39">
-        <v>0</v>
+        <v>1601</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="48"/>
       <c r="L6" s="49"/>
       <c r="M6" s="42">
-        <v>0</v>
+        <v>56409.5</v>
       </c>
       <c r="N6" s="43">
-        <v>0</v>
+        <v>51500</v>
       </c>
       <c r="P6" s="49">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>121278</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" ref="Q6:Q47" si="0">P6-F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="46">
@@ -9139,40 +9157,43 @@
         <v>44958</v>
       </c>
       <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="50"/>
+        <v>13717</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>123</v>
+      </c>
       <c r="E7" s="35">
         <v>44958</v>
       </c>
       <c r="F7" s="36">
-        <v>0</v>
+        <v>137059</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="38">
         <v>44958</v>
       </c>
       <c r="I7" s="39">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="48"/>
       <c r="L7" s="49"/>
       <c r="M7" s="42">
-        <v>0</v>
+        <f>35000+57301+10056</f>
+        <v>102357</v>
       </c>
       <c r="N7" s="43">
-        <v>0</v>
+        <v>33213</v>
       </c>
       <c r="P7" s="49">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>150233</v>
       </c>
       <c r="Q7" s="45">
         <v>0</v>
       </c>
-      <c r="R7" s="46">
-        <v>0</v>
+      <c r="R7" s="285">
+        <v>13174</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9181,41 +9202,42 @@
         <v>44959</v>
       </c>
       <c r="C8" s="33">
-        <v>0</v>
-      </c>
-      <c r="D8" s="51"/>
+        <v>22436</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>124</v>
+      </c>
       <c r="E8" s="35">
         <v>44959</v>
       </c>
       <c r="F8" s="36">
-        <v>0</v>
+        <v>99872</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>44959</v>
       </c>
       <c r="I8" s="39">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="48"/>
       <c r="L8" s="49"/>
       <c r="M8" s="42">
-        <v>0</v>
+        <v>49319</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>30576</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>103265</v>
       </c>
       <c r="Q8" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="285">
+        <v>3393</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9254,6 +9276,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="46">
@@ -9772,6 +9795,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="46">
@@ -9814,6 +9838,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="46">
@@ -10745,21 +10770,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="330">
+        <v>274391</v>
+      </c>
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>161211</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="342">
+        <v>502809.5</v>
+      </c>
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -10778,13 +10803,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>0</v>
+        <v>16567</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10836,11 +10861,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="309"/>
+        <v>435602</v>
+      </c>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11223,7 +11248,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>0</v>
+        <v>63018.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11231,7 +11256,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>0</v>
+        <v>486239</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11239,7 +11264,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>0</v>
+        <v>4189</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11265,50 +11290,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="341"/>
+        <v>4189</v>
+      </c>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>0</v>
+        <v>419031.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="336"/>
+        <v>419031.5</v>
+      </c>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11342,18 +11367,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>0</v>
+        <v>419031.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11368,22 +11393,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
-        <v>-3504178.07</v>
-      </c>
-      <c r="L83" s="329"/>
+        <v>-3085146.57</v>
+      </c>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11527,18 +11552,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
@@ -11549,6 +11562,18 @@
     <mergeCell ref="I79:J79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="K81:L81"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -526,6 +526,30 @@
   </si>
   <si>
     <t>MAIZ-POLLO-JAMON-QUESOS-CREMA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO- POSTRES</t>
+  </si>
+  <si>
+    <t>PASTOR-JAMON-POLLO-QUESOS-LENGUA</t>
+  </si>
+  <si>
+    <t>NOMIINA # 5</t>
+  </si>
+  <si>
+    <t>NOMINA # 5</t>
+  </si>
+  <si>
+    <t>TOCINETA-CHISTORRA-CHORIZO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-PICAÑA-SALCHICHAS</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-CHISTORRA-QEUSOS-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-CHORIZO-ROASBEEF-</t>
   </si>
 </sst>
 </file>
@@ -2624,6 +2648,39 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2698,39 +2755,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4003,23 +4027,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="314" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="313"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4029,24 +4053,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="317"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="318" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="318"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="319" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4061,14 +4085,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="322"/>
+      <c r="H4" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="324"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4078,11 +4102,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="311"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="320"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5808,11 +5832,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="330">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="319">
+      <c r="N49" s="330">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5820,7 +5844,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="331">
+      <c r="Q49" s="342">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5841,10 +5865,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="331"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="343"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5899,11 +5923,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="308">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="334"/>
+      <c r="N53" s="309"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6328,26 +6352,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="339"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="340">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="330"/>
+      <c r="L77" s="341"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="332"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6356,22 +6380,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="335"/>
+      <c r="K79" s="336">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="325"/>
+      <c r="L79" s="336"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6412,11 +6436,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="337">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="336"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6433,22 +6457,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="326"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="328"/>
+      <c r="K83" s="329">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="318"/>
+      <c r="L83" s="329"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6592,12 +6616,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6614,6 +6632,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8948,10 +8972,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8977,23 +9001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="314" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="313"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9003,24 +9027,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="317"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="318" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="318"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="319" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9035,14 +9059,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="322"/>
+      <c r="H4" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="324"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9052,11 +9076,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="311"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="320"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9246,34 +9270,37 @@
         <v>44960</v>
       </c>
       <c r="C9" s="33">
-        <v>0</v>
-      </c>
-      <c r="D9" s="51"/>
+        <v>6103</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>125</v>
+      </c>
       <c r="E9" s="35">
         <v>44960</v>
       </c>
       <c r="F9" s="36">
-        <v>0</v>
+        <v>138587</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>44960</v>
       </c>
       <c r="I9" s="39">
-        <v>0</v>
+        <v>3175.5</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="53"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>0</v>
+        <f>48737.5+30000+492+3914</f>
+        <v>83143.5</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>46165</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138587</v>
       </c>
       <c r="Q9" s="45">
         <f t="shared" si="0"/>
@@ -9289,34 +9316,43 @@
         <v>44961</v>
       </c>
       <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="50"/>
+        <v>12977</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>126</v>
+      </c>
       <c r="E10" s="35">
         <v>44961</v>
       </c>
       <c r="F10" s="36">
-        <v>0</v>
+        <v>149140</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>44961</v>
       </c>
       <c r="I10" s="39">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+        <v>8245</v>
+      </c>
+      <c r="J10" s="40">
+        <v>44961</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="55">
+        <v>15945</v>
+      </c>
       <c r="M10" s="42">
-        <v>0</v>
+        <f>42680+7684</f>
+        <v>50364</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>61609</v>
       </c>
       <c r="P10" s="49">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>149140</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="0"/>
@@ -9332,34 +9368,36 @@
         <v>44962</v>
       </c>
       <c r="C11" s="33">
-        <v>0</v>
-      </c>
-      <c r="D11" s="47"/>
+        <v>20503</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>129</v>
+      </c>
       <c r="E11" s="35">
         <v>44962</v>
       </c>
       <c r="F11" s="36">
-        <v>0</v>
+        <v>104071</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>44962</v>
       </c>
       <c r="I11" s="39">
-        <v>0</v>
+        <v>1672.5</v>
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="56"/>
       <c r="L11" s="49"/>
       <c r="M11" s="42">
-        <v>0</v>
+        <v>31716.5</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>50179</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" ref="P11:P32" si="2">N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>104071</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="0"/>
@@ -9375,35 +9413,38 @@
         <v>44963</v>
       </c>
       <c r="C12" s="33">
-        <v>0</v>
-      </c>
-      <c r="D12" s="47"/>
+        <v>31207</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>130</v>
+      </c>
       <c r="E12" s="35">
         <v>44963</v>
       </c>
       <c r="F12" s="36">
-        <v>0</v>
+        <v>123799</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>44963</v>
       </c>
       <c r="I12" s="39">
-        <v>0</v>
+        <v>1668</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="57"/>
       <c r="L12" s="49"/>
       <c r="M12" s="42">
-        <v>0</v>
+        <f>25000+29845</f>
+        <v>54845</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>36079</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>123799</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="0"/>
@@ -9419,35 +9460,38 @@
         <v>44964</v>
       </c>
       <c r="C13" s="33">
-        <v>0</v>
-      </c>
-      <c r="D13" s="51"/>
+        <v>10671</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>131</v>
+      </c>
       <c r="E13" s="35">
         <v>44964</v>
       </c>
       <c r="F13" s="36">
-        <v>0</v>
+        <v>152604</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>44964</v>
       </c>
       <c r="I13" s="39">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="121"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
-        <v>0</v>
+        <f>52192+21660</f>
+        <v>73852</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>67901</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
+        <v>152604</v>
       </c>
       <c r="Q13" s="45">
         <f t="shared" si="0"/>
@@ -9463,39 +9507,42 @@
         <v>44965</v>
       </c>
       <c r="C14" s="33">
-        <v>0</v>
-      </c>
-      <c r="D14" s="50"/>
+        <v>22243</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>132</v>
+      </c>
       <c r="E14" s="35">
         <v>44965</v>
       </c>
       <c r="F14" s="36">
-        <v>0</v>
+        <v>158933</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>44965</v>
       </c>
       <c r="I14" s="39">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="48"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <f>56614</f>
+        <v>56614</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>35958</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115835</v>
+      </c>
+      <c r="Q14" s="288">
+        <f t="shared" si="0"/>
+        <v>-43098</v>
       </c>
       <c r="R14" s="46">
         <v>0</v>
@@ -10532,9 +10579,15 @@
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="74">
+        <v>44961</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="49">
+        <v>23359.65</v>
+      </c>
       <c r="M41" s="42">
         <v>0</v>
       </c>
@@ -10770,21 +10823,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="330">
         <f>SUM(M5:M40)</f>
-        <v>274391</v>
-      </c>
-      <c r="N49" s="319">
+        <v>624926</v>
+      </c>
+      <c r="N49" s="330">
         <f>SUM(N5:N40)</f>
-        <v>161211</v>
+        <v>459102</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>502809.5</v>
-      </c>
-      <c r="Q49" s="331">
+        <v>1286845.5</v>
+      </c>
+      <c r="Q49" s="342">
         <f>SUM(Q5:Q40)</f>
-        <v>3.5</v>
+        <v>-43094.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -10803,10 +10856,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="331"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="343"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -10861,11 +10914,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="308">
         <f>M49+N49</f>
-        <v>435602</v>
-      </c>
-      <c r="N53" s="334"/>
+        <v>1084028</v>
+      </c>
+      <c r="N53" s="309"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11248,7 +11301,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>63018.5</v>
+        <v>166722.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11256,7 +11309,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>486239</v>
+        <v>1313373</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11264,7 +11317,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>4189</v>
+        <v>20150</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11272,7 +11325,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>0</v>
+        <v>39304.65</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -11290,50 +11343,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="339"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="340">
         <f>I75+L75</f>
-        <v>4189</v>
-      </c>
-      <c r="L77" s="330"/>
+        <v>59454.65</v>
+      </c>
+      <c r="L77" s="341"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="332"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>419031.5</v>
+        <v>1087195.8500000001</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="335"/>
+      <c r="K79" s="336">
         <f>F81+F82+F83</f>
-        <v>419031.5</v>
-      </c>
-      <c r="L79" s="325"/>
+        <v>1087195.8500000001</v>
+      </c>
+      <c r="L79" s="336"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11367,18 +11420,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>419031.5</v>
+        <v>1087195.8500000001</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="337">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="336"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11393,22 +11446,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="326"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="328"/>
+      <c r="K83" s="329">
         <f>K79+K81</f>
-        <v>-3085146.57</v>
-      </c>
-      <c r="L83" s="318"/>
+        <v>-2416982.2199999997</v>
+      </c>
+      <c r="L83" s="329"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11552,6 +11605,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
@@ -11564,16 +11627,6 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="134">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>POLLO-QUESOS-CHORIZO-ROASBEEF-</t>
+  </si>
+  <si>
+    <t>POLLO-TOSTADAS-ARABE-PASTOR</t>
   </si>
 </sst>
 </file>
@@ -2648,6 +2651,81 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2680,81 +2758,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4027,23 +4030,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4053,24 +4056,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4085,14 +4088,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4102,11 +4105,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5832,11 +5835,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="330">
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5844,7 +5847,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="342">
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5865,10 +5868,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5923,11 +5926,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6352,26 +6355,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="341"/>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6380,22 +6383,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="336"/>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6436,11 +6439,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6457,22 +6460,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="329"/>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6616,6 +6619,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6632,12 +6641,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8972,10 +8975,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9001,23 +9004,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9027,24 +9030,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9059,14 +9062,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9076,11 +9079,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9554,34 +9557,37 @@
         <v>44966</v>
       </c>
       <c r="C15" s="33">
-        <v>0</v>
-      </c>
-      <c r="D15" s="50"/>
+        <v>6414</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>133</v>
+      </c>
       <c r="E15" s="35">
         <v>44966</v>
       </c>
       <c r="F15" s="36">
-        <v>0</v>
+        <v>110600</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>44966</v>
       </c>
       <c r="I15" s="39">
-        <v>0</v>
+        <v>1453</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="48"/>
       <c r="L15" s="49"/>
       <c r="M15" s="42">
-        <v>0</v>
+        <f>20000+39288</f>
+        <v>59288</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>43445</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>110600</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="0"/>
@@ -10823,19 +10829,19 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
-        <v>624926</v>
-      </c>
-      <c r="N49" s="330">
+        <v>684214</v>
+      </c>
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
-        <v>459102</v>
+        <v>502547</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1286845.5</v>
-      </c>
-      <c r="Q49" s="342">
+        <v>1397445.5</v>
+      </c>
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
         <v>-43094.5</v>
       </c>
@@ -10856,10 +10862,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -10914,11 +10920,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
-        <v>1084028</v>
-      </c>
-      <c r="N53" s="309"/>
+        <v>1186761</v>
+      </c>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11301,7 +11307,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>166722.5</v>
+        <v>173136.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11309,7 +11315,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>1313373</v>
+        <v>1423973</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11317,7 +11323,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>20150</v>
+        <v>21603</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11343,50 +11349,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
-        <v>59454.65</v>
-      </c>
-      <c r="L77" s="341"/>
+        <v>60907.65</v>
+      </c>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1087195.8500000001</v>
+        <v>1189928.8500000001</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
-        <v>1087195.8500000001</v>
-      </c>
-      <c r="L79" s="336"/>
+        <v>1189928.8500000001</v>
+      </c>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11420,18 +11426,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1087195.8500000001</v>
+        <v>1189928.8500000001</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11446,22 +11452,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
-        <v>-2416982.2199999997</v>
-      </c>
-      <c r="L83" s="329"/>
+        <v>-2314249.2199999997</v>
+      </c>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11605,13 +11611,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11627,6 +11626,13 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -553,6 +553,24 @@
   </si>
   <si>
     <t>POLLO-TOSTADAS-ARABE-PASTOR</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-CHORIZO</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-LONGANIZA-CHORIZO-PAPAS</t>
+  </si>
+  <si>
+    <t>Nomina # 6</t>
+  </si>
+  <si>
+    <t>NOMINA # 6</t>
+  </si>
+  <si>
+    <t>QUESOS-SALAMI-CHISTORRA-PEPERONI</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-POLLO-CHORIZO-JAMON-MOLE-CHISTORRA-LOMO</t>
   </si>
 </sst>
 </file>
@@ -2651,6 +2669,39 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2725,39 +2776,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4030,23 +4048,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="314" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="313"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4056,24 +4074,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="317"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="318" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="318"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="319" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4088,14 +4106,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="322"/>
+      <c r="H4" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="324"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4105,11 +4123,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="311"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="320"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5835,11 +5853,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="330">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="319">
+      <c r="N49" s="330">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5847,7 +5865,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="331">
+      <c r="Q49" s="342">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5868,10 +5886,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="331"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="343"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5926,11 +5944,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="308">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="334"/>
+      <c r="N53" s="309"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6355,26 +6373,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="339"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="340">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="330"/>
+      <c r="L77" s="341"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="332"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6383,22 +6401,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="335"/>
+      <c r="K79" s="336">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="325"/>
+      <c r="L79" s="336"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6439,11 +6457,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="337">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="336"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6460,22 +6478,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="326"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="328"/>
+      <c r="K83" s="329">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="318"/>
+      <c r="L83" s="329"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6619,12 +6637,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6641,6 +6653,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8975,10 +8993,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9004,23 +9022,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="314" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="313"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9030,24 +9048,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="317"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="318" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="318"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="319" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9062,14 +9080,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="322"/>
+      <c r="H4" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="324"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9079,11 +9097,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="311"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="320"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9603,38 +9621,41 @@
         <v>44967</v>
       </c>
       <c r="C16" s="33">
-        <v>0</v>
-      </c>
-      <c r="D16" s="47"/>
+        <v>8683</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>134</v>
+      </c>
       <c r="E16" s="35">
         <v>44967</v>
       </c>
       <c r="F16" s="36">
-        <v>0</v>
+        <v>116861</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>44967</v>
       </c>
       <c r="I16" s="39">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="57"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>60322+5877.22+1257</f>
+        <v>67456.22</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>39965</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>116861.22</v>
       </c>
       <c r="Q16" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22000000000116415</v>
       </c>
       <c r="R16" s="46">
         <v>0</v>
@@ -9646,34 +9667,46 @@
         <v>44968</v>
       </c>
       <c r="C17" s="33">
-        <v>0</v>
-      </c>
-      <c r="D17" s="51"/>
+        <v>26225</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>135</v>
+      </c>
       <c r="E17" s="35">
         <v>44968</v>
       </c>
       <c r="F17" s="36">
-        <v>0</v>
+        <v>151929</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>44968</v>
       </c>
       <c r="I17" s="39">
-        <v>0</v>
-      </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="55"/>
+        <v>4497</v>
+      </c>
+      <c r="J17" s="40">
+        <v>44968</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="55">
+        <f>19793+4904</f>
+        <v>24697</v>
+      </c>
       <c r="M17" s="42">
-        <v>0</v>
+        <v>31638</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>64872</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="P17" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>151929</v>
       </c>
       <c r="Q17" s="45">
         <f t="shared" si="0"/>
@@ -9689,38 +9722,41 @@
         <v>44969</v>
       </c>
       <c r="C18" s="33">
-        <v>0</v>
-      </c>
-      <c r="D18" s="47"/>
+        <v>7321</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>138</v>
+      </c>
       <c r="E18" s="35">
         <v>44969</v>
       </c>
       <c r="F18" s="36">
-        <v>0</v>
+        <v>121998</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>44969</v>
       </c>
       <c r="I18" s="39">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>15000+41549+200</f>
+        <v>56749</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>57178</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>122198</v>
       </c>
       <c r="Q18" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R18" s="46">
         <v>0</v>
@@ -9732,41 +9768,44 @@
         <v>44970</v>
       </c>
       <c r="C19" s="33">
-        <v>0</v>
-      </c>
-      <c r="D19" s="47"/>
+        <v>32429</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>139</v>
+      </c>
       <c r="E19" s="35">
         <v>44970</v>
       </c>
       <c r="F19" s="36">
-        <v>0</v>
+        <v>104330</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>44970</v>
       </c>
       <c r="I19" s="39">
-        <v>0</v>
+        <v>2463</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="294"/>
       <c r="L19" s="59"/>
       <c r="M19" s="42">
-        <v>0</v>
+        <f>27948+8729</f>
+        <v>36677</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>32761</v>
       </c>
       <c r="P19" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>104330</v>
       </c>
       <c r="Q19" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="46">
-        <v>0</v>
+      <c r="R19" s="46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10621,9 +10660,15 @@
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="49"/>
+      <c r="J42" s="74">
+        <v>44968</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L42" s="49">
+        <v>25599</v>
+      </c>
       <c r="M42" s="42">
         <v>0</v>
       </c>
@@ -10829,21 +10874,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="330">
         <f>SUM(M5:M40)</f>
-        <v>684214</v>
-      </c>
-      <c r="N49" s="319">
+        <v>876734.22</v>
+      </c>
+      <c r="N49" s="330">
         <f>SUM(N5:N40)</f>
-        <v>502547</v>
+        <v>697323</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1397445.5</v>
-      </c>
-      <c r="Q49" s="331">
+        <v>1892763.72</v>
+      </c>
+      <c r="Q49" s="342">
         <f>SUM(Q5:Q40)</f>
-        <v>-43094.5</v>
+        <v>-42894.28</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -10862,10 +10907,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="331"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="343"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -10920,11 +10965,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="308">
         <f>M49+N49</f>
-        <v>1186761</v>
-      </c>
-      <c r="N53" s="334"/>
+        <v>1574057.22</v>
+      </c>
+      <c r="N53" s="309"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11307,7 +11352,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>173136.5</v>
+        <v>247794.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11315,7 +11360,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>1423973</v>
+        <v>1919091</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11323,7 +11368,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>21603</v>
+        <v>30270</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11331,7 +11376,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>39304.65</v>
+        <v>89600.65</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -11349,50 +11394,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="339"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="340">
         <f>I75+L75</f>
-        <v>60907.65</v>
-      </c>
-      <c r="L77" s="330"/>
+        <v>119870.65</v>
+      </c>
+      <c r="L77" s="341"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="332"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1189928.8500000001</v>
+        <v>1551425.85</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="335"/>
+      <c r="K79" s="336">
         <f>F81+F82+F83</f>
-        <v>1189928.8500000001</v>
-      </c>
-      <c r="L79" s="325"/>
+        <v>1551425.85</v>
+      </c>
+      <c r="L79" s="336"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11426,18 +11471,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1189928.8500000001</v>
+        <v>1551425.85</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="337">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="336"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11452,22 +11497,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="326"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="328"/>
+      <c r="K83" s="329">
         <f>K79+K81</f>
-        <v>-2314249.2199999997</v>
-      </c>
-      <c r="L83" s="318"/>
+        <v>-1952752.2199999997</v>
+      </c>
+      <c r="L83" s="329"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11611,6 +11656,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11627,16 +11678,11 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -571,6 +571,24 @@
   </si>
   <si>
     <t>PASTOR-QUESOS-POLLO-CHORIZO-JAMON-MOLE-CHISTORRA-LOMO</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-SALCHICHAS-LOMO-ENCHILADA</t>
+  </si>
+  <si>
+    <t>QUESOS-PICAÑA-POLLO-ENCHILADA-LONGANIZA-SALCHICHA</t>
+  </si>
+  <si>
+    <t>C/16 Feb</t>
+  </si>
+  <si>
+    <t>POSTRES-POLLO-QUESOS-MIXIOTES-PAPAS-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C /15-Feb </t>
+  </si>
+  <si>
+    <t>ALBICIA</t>
   </si>
 </sst>
 </file>
@@ -2669,6 +2687,81 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2701,81 +2794,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4048,23 +4066,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4074,24 +4092,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4106,14 +4124,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4123,11 +4141,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5853,11 +5871,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="330">
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5865,7 +5883,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="342">
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5886,10 +5904,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5944,11 +5962,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6373,26 +6391,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="341"/>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6401,22 +6419,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="336"/>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6457,11 +6475,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6478,22 +6496,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="329"/>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6637,6 +6655,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6653,12 +6677,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8993,10 +9011,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9022,23 +9040,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9048,24 +9066,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9080,14 +9098,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9097,11 +9115,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9814,34 +9832,37 @@
         <v>44971</v>
       </c>
       <c r="C20" s="33">
-        <v>0</v>
-      </c>
-      <c r="D20" s="47"/>
+        <v>27173</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>140</v>
+      </c>
       <c r="E20" s="35">
         <v>44971</v>
       </c>
       <c r="F20" s="36">
-        <v>0</v>
+        <v>116483</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>44971</v>
       </c>
       <c r="I20" s="39">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <f>47588</f>
+        <v>47588</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>41186</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>116483</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="0"/>
@@ -9857,34 +9878,39 @@
         <v>44972</v>
       </c>
       <c r="C21" s="33">
-        <v>0</v>
-      </c>
-      <c r="D21" s="47"/>
+        <v>24313.5</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="E21" s="35">
         <v>44972</v>
       </c>
       <c r="F21" s="36">
-        <v>0</v>
+        <v>108127</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>44972</v>
       </c>
       <c r="I21" s="39">
-        <v>0</v>
+        <v>3409</v>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="61"/>
       <c r="L21" s="55"/>
       <c r="M21" s="42">
-        <v>0</v>
+        <v>36545.5</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>43859</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>108127</v>
       </c>
       <c r="Q21" s="45">
         <f t="shared" si="0"/>
@@ -9900,34 +9926,40 @@
         <v>44973</v>
       </c>
       <c r="C22" s="33">
-        <v>0</v>
-      </c>
-      <c r="D22" s="47"/>
+        <v>18073</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>143</v>
+      </c>
       <c r="E22" s="35">
         <v>44973</v>
       </c>
       <c r="F22" s="36">
-        <v>0</v>
+        <v>88411</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>44973</v>
       </c>
       <c r="I22" s="39">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="295"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
-        <v>0</v>
+        <f>18454.5+25683.5</f>
+        <v>44138</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <v>25247</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88411</v>
       </c>
       <c r="Q22" s="45">
         <f t="shared" si="0"/>
@@ -10748,9 +10780,16 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="102"/>
+      <c r="B45" s="32">
+        <v>44966</v>
+      </c>
+      <c r="C45" s="93">
+        <f>17650+8308+4544+2469+10246</f>
+        <v>43217</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>145</v>
+      </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
@@ -10874,19 +10913,19 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
-        <v>876734.22</v>
-      </c>
-      <c r="N49" s="330">
+        <v>1005005.72</v>
+      </c>
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
-        <v>697323</v>
+        <v>807615</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1892763.72</v>
-      </c>
-      <c r="Q49" s="342">
+        <v>2205784.7199999997</v>
+      </c>
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
         <v>-42894.28</v>
       </c>
@@ -10907,10 +10946,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -10965,11 +11004,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
-        <v>1574057.22</v>
-      </c>
-      <c r="N53" s="309"/>
+        <v>1812620.72</v>
+      </c>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11352,7 +11391,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>247794.5</v>
+        <v>360571</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11360,7 +11399,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>1919091</v>
+        <v>2232112</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11368,7 +11407,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>30270</v>
+        <v>35168</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11394,50 +11433,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
-        <v>119870.65</v>
-      </c>
-      <c r="L77" s="341"/>
+        <v>124768.65</v>
+      </c>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1551425.85</v>
+        <v>1746772.35</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
-        <v>1551425.85</v>
-      </c>
-      <c r="L79" s="336"/>
+        <v>1746772.35</v>
+      </c>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11471,18 +11510,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1551425.85</v>
+        <v>1746772.35</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11497,22 +11536,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
-        <v>-1952752.2199999997</v>
-      </c>
-      <c r="L83" s="329"/>
+        <v>-1757405.7199999997</v>
+      </c>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11656,12 +11695,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11678,6 +11711,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="150">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -589,6 +589,18 @@
   </si>
   <si>
     <t>ALBICIA</t>
+  </si>
+  <si>
+    <t>LENGUA-POLLO-QUESOS-TOSTADAS</t>
+  </si>
+  <si>
+    <t>PASTOR-POLLO-QUESOS-ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -2687,6 +2699,39 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2761,39 +2806,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4066,23 +4078,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="314" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="313"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4092,24 +4104,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="317"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="318" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="318"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="319" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4124,14 +4136,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="322"/>
+      <c r="H4" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="324"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4141,11 +4153,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="311"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="320"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5871,11 +5883,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="330">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="319">
+      <c r="N49" s="330">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5883,7 +5895,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="331">
+      <c r="Q49" s="342">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5904,10 +5916,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="331"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="343"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5962,11 +5974,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="308">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="334"/>
+      <c r="N53" s="309"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6391,26 +6403,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="339"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="340">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="330"/>
+      <c r="L77" s="341"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="332"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6419,22 +6431,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="335"/>
+      <c r="K79" s="336">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="325"/>
+      <c r="L79" s="336"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6475,11 +6487,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="337">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="336"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6496,22 +6508,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="326"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="328"/>
+      <c r="K83" s="329">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="318"/>
+      <c r="L83" s="329"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6655,12 +6667,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6677,6 +6683,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9011,10 +9023,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9040,23 +9052,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="314" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="313"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9066,24 +9078,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="317"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="318" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="318"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="319" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9098,14 +9110,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="322"/>
+      <c r="H4" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="324"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9115,11 +9127,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="311"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="320"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9976,34 +9988,37 @@
         <v>44974</v>
       </c>
       <c r="C23" s="33">
-        <v>0</v>
-      </c>
-      <c r="D23" s="47"/>
+        <v>18281</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>146</v>
+      </c>
       <c r="E23" s="35">
         <v>44974</v>
       </c>
       <c r="F23" s="36">
-        <v>0</v>
+        <v>113106</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>44974</v>
       </c>
       <c r="I23" s="39">
-        <v>0</v>
+        <v>4804</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
-        <v>0</v>
+        <f>45894+4486</f>
+        <v>50380</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>39641</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>113106</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="0"/>
@@ -10019,41 +10034,49 @@
         <v>44975</v>
       </c>
       <c r="C24" s="33">
-        <v>0</v>
-      </c>
-      <c r="D24" s="51"/>
+        <v>18377</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>147</v>
+      </c>
       <c r="E24" s="35">
         <v>44975</v>
       </c>
       <c r="F24" s="36">
-        <v>0</v>
+        <v>137262</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>44975</v>
       </c>
       <c r="I24" s="39">
-        <v>0</v>
-      </c>
-      <c r="J24" s="66"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="67"/>
+        <v>4963.5</v>
+      </c>
+      <c r="J24" s="66">
+        <v>44975</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="67">
+        <v>14718</v>
+      </c>
       <c r="M24" s="42">
-        <v>0</v>
+        <v>42408.5</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>56795</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>137262</v>
       </c>
       <c r="Q24" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="46">
-        <v>0</v>
+      <c r="R24" s="46" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10062,34 +10085,36 @@
         <v>44976</v>
       </c>
       <c r="C25" s="33">
-        <v>0</v>
-      </c>
-      <c r="D25" s="47"/>
+        <v>8731</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>129</v>
+      </c>
       <c r="E25" s="35">
         <v>44976</v>
       </c>
       <c r="F25" s="36">
-        <v>0</v>
+        <v>106557</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>44976</v>
       </c>
       <c r="I25" s="39">
-        <v>0</v>
+        <v>3302</v>
       </c>
       <c r="J25" s="64"/>
       <c r="K25" s="48"/>
       <c r="L25" s="68"/>
       <c r="M25" s="42">
-        <v>0</v>
+        <v>60371</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>34153</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>106557</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="0"/>
@@ -10728,9 +10753,15 @@
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
+      <c r="J43" s="74">
+        <v>44975</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="L43" s="49">
+        <v>24057</v>
+      </c>
       <c r="M43" s="42">
         <v>0</v>
       </c>
@@ -10913,19 +10944,19 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="330">
         <f>SUM(M5:M40)</f>
-        <v>1005005.72</v>
-      </c>
-      <c r="N49" s="319">
+        <v>1158165.22</v>
+      </c>
+      <c r="N49" s="330">
         <f>SUM(N5:N40)</f>
-        <v>807615</v>
+        <v>938204</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2205784.7199999997</v>
-      </c>
-      <c r="Q49" s="331">
+        <v>2562709.7199999997</v>
+      </c>
+      <c r="Q49" s="342">
         <f>SUM(Q5:Q40)</f>
         <v>-42894.28</v>
       </c>
@@ -10946,10 +10977,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="331"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="343"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -11004,11 +11035,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="308">
         <f>M49+N49</f>
-        <v>1812620.72</v>
-      </c>
-      <c r="N53" s="334"/>
+        <v>2096369.22</v>
+      </c>
+      <c r="N53" s="309"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11391,7 +11422,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>360571</v>
+        <v>405960</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11399,7 +11430,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2232112</v>
+        <v>2589037</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11407,7 +11438,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>35168</v>
+        <v>48237.5</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11415,7 +11446,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>89600.65</v>
+        <v>128375.65</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -11433,50 +11464,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="339"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="340">
         <f>I75+L75</f>
-        <v>124768.65</v>
-      </c>
-      <c r="L77" s="330"/>
+        <v>176613.15</v>
+      </c>
+      <c r="L77" s="341"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="332"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1746772.35</v>
+        <v>2006463.85</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="333"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="334" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="335"/>
+      <c r="K79" s="336">
         <f>F81+F82+F83</f>
-        <v>1746772.35</v>
-      </c>
-      <c r="L79" s="325"/>
+        <v>2006463.85</v>
+      </c>
+      <c r="L79" s="336"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11510,18 +11541,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1746772.35</v>
+        <v>2006463.85</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="337">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="336"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11536,22 +11567,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="326"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="328"/>
+      <c r="K83" s="329">
         <f>K79+K81</f>
-        <v>-1757405.7199999997</v>
-      </c>
-      <c r="L83" s="318"/>
+        <v>-1497714.2199999997</v>
+      </c>
+      <c r="L83" s="329"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11695,6 +11726,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11711,12 +11748,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="155">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -601,6 +601,21 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>SALCHICHAS-JAMON-CHORIZO-POLLO-QUESOS-</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-JAMON-SALCHICHA</t>
+  </si>
+  <si>
+    <t>SALCHICHA-QUESOS-POLLO-CREMA</t>
+  </si>
+  <si>
+    <t>PASTOR-PAN ARABE-POLLO-ENCHILADA-CHORIZO</t>
+  </si>
+  <si>
+    <t>SALSAS-QUESOS-POLLO</t>
   </si>
 </sst>
 </file>
@@ -2699,6 +2714,81 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2731,81 +2821,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4078,23 +4093,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4104,24 +4119,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4136,14 +4151,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4153,11 +4168,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5883,11 +5898,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="330">
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5895,7 +5910,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="342">
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5916,10 +5931,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5974,11 +5989,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6403,26 +6418,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="341"/>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6431,22 +6446,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="336"/>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6487,11 +6502,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6508,22 +6523,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="329"/>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6667,6 +6682,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6683,12 +6704,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6708,7 +6723,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9023,10 +9038,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9052,23 +9067,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="312"/>
-      <c r="C1" s="314" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="313"/>
+      <c r="B2" s="338"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9078,24 +9093,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="317"/>
+      <c r="B3" s="341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="342"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="343"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="310" t="s">
+      <c r="P3" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="319" t="s">
+      <c r="R3" s="308" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9110,14 +9125,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="321" t="s">
+      <c r="E4" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="H4" s="323" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="324"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9127,11 +9142,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="311"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="320"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10129,29 +10144,37 @@
       <c r="B26" s="32">
         <v>44977</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="33">
+        <v>16832.5</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>150</v>
+      </c>
       <c r="E26" s="35">
         <v>44977</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36">
+        <v>95986</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38">
         <v>44977</v>
       </c>
-      <c r="I26" s="39"/>
+      <c r="I26" s="39">
+        <v>2386</v>
+      </c>
       <c r="J26" s="40"/>
       <c r="K26" s="70"/>
       <c r="L26" s="71"/>
       <c r="M26" s="42">
-        <v>0</v>
+        <v>36667.5</v>
       </c>
       <c r="N26" s="43">
-        <v>0</v>
+        <v>40100</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>95986</v>
       </c>
       <c r="Q26" s="45">
         <f t="shared" si="0"/>
@@ -10169,29 +10192,38 @@
       <c r="B27" s="32">
         <v>44978</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="33">
+        <v>19897.5</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="E27" s="35">
         <v>44978</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36">
+        <v>114836</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38">
         <v>44978</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="39">
+        <v>2758</v>
+      </c>
       <c r="J27" s="72"/>
       <c r="K27" s="73"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
-        <v>0</v>
+        <f>37369.5+10580</f>
+        <v>47949.5</v>
       </c>
       <c r="N27" s="43">
-        <v>0</v>
+        <v>44231</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>114836</v>
       </c>
       <c r="Q27" s="45">
         <f t="shared" si="0"/>
@@ -10206,33 +10238,42 @@
       <c r="B28" s="32">
         <v>44979</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33">
+        <v>9195</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>152</v>
+      </c>
       <c r="E28" s="35">
         <v>44979</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>88291</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38">
         <v>44979</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="39">
+        <v>4173</v>
+      </c>
       <c r="J28" s="74"/>
       <c r="K28" s="75"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <v>0</v>
+        <f>40263+4633.65</f>
+        <v>44896.65</v>
       </c>
       <c r="N28" s="43">
-        <v>0</v>
+        <v>30026</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88290.65</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.35000000000582077</v>
       </c>
       <c r="R28" s="46">
         <v>0</v>
@@ -10243,29 +10284,37 @@
       <c r="B29" s="32">
         <v>44980</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="C29" s="33">
+        <v>14088</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>153</v>
+      </c>
       <c r="E29" s="35">
         <v>44980</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36">
+        <v>124393</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38">
         <v>44980</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="39">
+        <v>1093</v>
+      </c>
       <c r="J29" s="77"/>
       <c r="K29" s="78"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
-        <v>0</v>
+        <v>78783</v>
       </c>
       <c r="N29" s="43">
-        <v>0</v>
+        <v>30429</v>
       </c>
       <c r="P29" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>124393</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="0"/>
@@ -10280,33 +10329,40 @@
       <c r="B30" s="32">
         <v>44981</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="33">
+        <v>9312.5</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>154</v>
+      </c>
       <c r="E30" s="35">
         <v>44981</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36">
+        <v>102902</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38">
         <v>44981</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="39">
+        <v>5003</v>
+      </c>
       <c r="J30" s="74"/>
       <c r="K30" s="48"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
-        <v>0</v>
+        <v>55595.5</v>
       </c>
       <c r="N30" s="43">
-        <v>0</v>
+        <v>32991</v>
       </c>
       <c r="P30" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102902</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>11</v>
       </c>
       <c r="R30" s="46">
         <v>0</v>
@@ -10944,21 +11000,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="330">
+      <c r="M49" s="319">
         <f>SUM(M5:M40)</f>
-        <v>1158165.22</v>
-      </c>
-      <c r="N49" s="330">
+        <v>1422057.3699999999</v>
+      </c>
+      <c r="N49" s="319">
         <f>SUM(N5:N40)</f>
-        <v>938204</v>
+        <v>1115981</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2562709.7199999997</v>
-      </c>
-      <c r="Q49" s="342">
+        <v>3089117.3699999996</v>
+      </c>
+      <c r="Q49" s="331">
         <f>SUM(Q5:Q40)</f>
-        <v>-42894.28</v>
+        <v>-42894.630000000005</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -10977,10 +11033,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="331"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="343"/>
+      <c r="Q50" s="332"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -11035,11 +11091,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="308">
+      <c r="M53" s="333">
         <f>M49+N49</f>
-        <v>2096369.22</v>
-      </c>
-      <c r="N53" s="309"/>
+        <v>2538038.37</v>
+      </c>
+      <c r="N53" s="334"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11422,7 +11478,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>405960</v>
+        <v>475285.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11430,7 +11486,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2589037</v>
+        <v>3115445</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11438,7 +11494,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>48237.5</v>
+        <v>63650.5</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11464,50 +11520,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="338" t="s">
+      <c r="H77" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="339"/>
+      <c r="I77" s="328"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="340">
+      <c r="K77" s="329">
         <f>I75+L75</f>
-        <v>176613.15</v>
-      </c>
-      <c r="L77" s="341"/>
+        <v>192026.15</v>
+      </c>
+      <c r="L77" s="330"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="332" t="s">
+      <c r="D78" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="332"/>
+      <c r="E78" s="321"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>2006463.85</v>
+        <v>2448133.35</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="333" t="s">
+      <c r="D79" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="333"/>
+      <c r="E79" s="322"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="334" t="s">
+      <c r="I79" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="335"/>
-      <c r="K79" s="336">
+      <c r="J79" s="324"/>
+      <c r="K79" s="325">
         <f>F81+F82+F83</f>
-        <v>2006463.85</v>
-      </c>
-      <c r="L79" s="336"/>
+        <v>2448133.35</v>
+      </c>
+      <c r="L79" s="325"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11541,18 +11597,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>2006463.85</v>
+        <v>2448133.35</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="337">
+      <c r="K81" s="326">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="336"/>
+      <c r="L81" s="325"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11567,22 +11623,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="325" t="s">
+      <c r="D83" s="314" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="326"/>
+      <c r="E83" s="315"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="327" t="s">
+      <c r="I83" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="328"/>
-      <c r="K83" s="329">
+      <c r="J83" s="317"/>
+      <c r="K83" s="318">
         <f>K79+K81</f>
-        <v>-1497714.2199999997</v>
-      </c>
-      <c r="L83" s="329"/>
+        <v>-1056044.7199999997</v>
+      </c>
+      <c r="L83" s="318"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11726,12 +11782,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11748,6 +11798,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="165">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -616,6 +616,36 @@
   </si>
   <si>
     <t>SALSAS-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>LOMO-POLLO-PAPA</t>
+  </si>
+  <si>
+    <t>NOMINA # 8</t>
+  </si>
+  <si>
+    <t>NOMINA #8</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS--</t>
+  </si>
+  <si>
+    <t>MAIZ-SALCHICHA-JAMONES-CHORIZO-POLLO-LONGANIZA-ROASBEEF</t>
+  </si>
+  <si>
+    <t>PROTECCION CIVIL Verduras</t>
+  </si>
+  <si>
+    <t>QUESO-POLLO-ARABE-PASTOR-</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-CHORIZO-ENCHILADA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-TOSTADAS-LONGANIZA-ENCHILADA</t>
+  </si>
+  <si>
+    <t>LOMO-POLLO-QUESOS-JAMON-</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2714,6 +2744,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2882,6 +2918,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FF990099"/>
       <color rgb="FF800080"/>
@@ -4066,8 +4103,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A58" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4093,23 +4130,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4119,24 +4156,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="310" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4151,14 +4188,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="315"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4168,11 +4205,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="338"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="311"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5898,11 +5935,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="321">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="319">
+      <c r="N49" s="321">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5910,7 +5947,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="331">
+      <c r="Q49" s="333">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5931,10 +5968,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="322"/>
+      <c r="N50" s="322"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="334"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -5989,11 +6026,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="335">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="334"/>
+      <c r="N53" s="336"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6418,26 +6455,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="330"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="331">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="330"/>
+      <c r="L77" s="332"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="323"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6446,22 +6483,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="324"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="325" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="326"/>
+      <c r="K79" s="327">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="325"/>
+      <c r="L79" s="327"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6502,11 +6539,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="328">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="327"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6523,22 +6560,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="317"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="318" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="319"/>
+      <c r="K83" s="320">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="318"/>
+      <c r="L83" s="320"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6720,7 +6757,7 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
@@ -7812,10 +7849,10 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="344"/>
-      <c r="J36" s="345"/>
-      <c r="K36" s="345"/>
-      <c r="L36" s="346"/>
+      <c r="I36" s="346"/>
+      <c r="J36" s="347"/>
+      <c r="K36" s="347"/>
+      <c r="L36" s="348"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -7838,10 +7875,10 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="344"/>
-      <c r="J37" s="345"/>
-      <c r="K37" s="345"/>
-      <c r="L37" s="346"/>
+      <c r="I37" s="346"/>
+      <c r="J37" s="347"/>
+      <c r="K37" s="347"/>
+      <c r="L37" s="348"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -7898,10 +7935,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="347" t="s">
+      <c r="I40" s="349" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="348"/>
+      <c r="J40" s="350"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -7920,8 +7957,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="349"/>
-      <c r="J41" s="350"/>
+      <c r="I41" s="351"/>
+      <c r="J41" s="352"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -7940,8 +7977,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="351"/>
-      <c r="J42" s="352"/>
+      <c r="I42" s="353"/>
+      <c r="J42" s="354"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -8445,10 +8482,10 @@
         <f>SUM(G3:G66)</f>
         <v>1513561.68</v>
       </c>
-      <c r="I67" s="353" t="s">
+      <c r="I67" s="355" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="354"/>
+      <c r="J67" s="356"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>71084.800000000003</v>
@@ -8468,11 +8505,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="357" t="s">
+      <c r="G68" s="359" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="355"/>
-      <c r="J68" s="356"/>
+      <c r="I68" s="357"/>
+      <c r="J68" s="358"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -8483,7 +8520,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="358"/>
+      <c r="G69" s="360"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -9037,11 +9074,11 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9067,23 +9104,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="339"/>
+      <c r="C1" s="341" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9093,24 +9130,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="344"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="345"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="310" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9125,14 +9162,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="315"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9142,11 +9179,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="338"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="309"/>
+      <c r="R4" s="311"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9462,7 +9499,7 @@
         <v>50179</v>
       </c>
       <c r="P11" s="49">
-        <f t="shared" ref="P11:P32" si="2">N11+M11+L11+I11+C11</f>
+        <f t="shared" ref="P11:P40" si="2">N11+M11+L11+I11+C11</f>
         <v>104071</v>
       </c>
       <c r="Q11" s="45">
@@ -9595,8 +9632,8 @@
       <c r="K14" s="48"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <f>56614</f>
-        <v>56614</v>
+        <f>56614+23000+20098</f>
+        <v>99712</v>
       </c>
       <c r="N14" s="43">
         <v>35958</v>
@@ -9604,11 +9641,11 @@
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="2"/>
-        <v>115835</v>
-      </c>
-      <c r="Q14" s="288">
-        <f t="shared" si="0"/>
-        <v>-43098</v>
+        <v>158933</v>
+      </c>
+      <c r="Q14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R14" s="46">
         <v>0</v>
@@ -9800,8 +9837,7 @@
         <v>122198</v>
       </c>
       <c r="Q18" s="45">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R18" s="46">
         <v>0</v>
@@ -10373,29 +10409,44 @@
       <c r="B31" s="32">
         <v>44982</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="33">
+        <v>2128</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>155</v>
+      </c>
       <c r="E31" s="35">
         <v>44982</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36">
+        <v>158795</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38">
         <v>44982</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="68"/>
+      <c r="I31" s="39">
+        <v>2941</v>
+      </c>
+      <c r="J31" s="74">
+        <v>44982</v>
+      </c>
+      <c r="K31" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" s="68">
+        <v>16111</v>
+      </c>
       <c r="M31" s="42">
-        <v>0</v>
+        <f>4074+61653</f>
+        <v>65727</v>
       </c>
       <c r="N31" s="43">
-        <v>0</v>
+        <v>71888</v>
       </c>
       <c r="P31" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>158795</v>
       </c>
       <c r="Q31" s="45">
         <f t="shared" si="0"/>
@@ -10410,33 +10461,41 @@
       <c r="B32" s="32">
         <v>44983</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="33">
+        <v>6257</v>
+      </c>
+      <c r="D32" s="308" t="s">
+        <v>158</v>
+      </c>
       <c r="E32" s="35">
         <v>44983</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="36">
+        <v>93682</v>
+      </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38">
         <v>44983</v>
       </c>
-      <c r="I32" s="39"/>
+      <c r="I32" s="39">
+        <v>1898</v>
+      </c>
       <c r="J32" s="82"/>
       <c r="K32" s="48"/>
       <c r="L32" s="49"/>
       <c r="M32" s="42">
-        <v>0</v>
+        <v>55700</v>
       </c>
       <c r="N32" s="43">
-        <v>0</v>
+        <v>29828</v>
       </c>
       <c r="P32" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>93683</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -10447,28 +10506,44 @@
       <c r="B33" s="32">
         <v>44984</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="83"/>
+      <c r="C33" s="33">
+        <v>28069</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>159</v>
+      </c>
       <c r="E33" s="35">
         <v>44984</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="36">
+        <v>143797</v>
+      </c>
       <c r="G33" s="37"/>
       <c r="H33" s="38">
         <v>44984</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="84"/>
+      <c r="I33" s="39">
+        <v>1074</v>
+      </c>
+      <c r="J33" s="74">
+        <v>44984</v>
+      </c>
+      <c r="K33" s="309" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="84">
+        <v>10000</v>
+      </c>
       <c r="M33" s="42">
-        <v>0</v>
+        <f>40670+13374</f>
+        <v>54044</v>
       </c>
       <c r="N33" s="43">
-        <v>0</v>
+        <v>50610</v>
       </c>
       <c r="P33" s="69">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>143797</v>
       </c>
       <c r="Q33" s="45">
         <f t="shared" si="0"/>
@@ -10483,28 +10558,38 @@
       <c r="B34" s="32">
         <v>44985</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="33">
+        <v>8261</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>161</v>
+      </c>
       <c r="E34" s="35">
         <v>44985</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="36">
+        <v>110726</v>
+      </c>
       <c r="G34" s="37"/>
       <c r="H34" s="38">
         <v>44985</v>
       </c>
-      <c r="I34" s="39"/>
+      <c r="I34" s="39">
+        <v>1831</v>
+      </c>
       <c r="J34" s="74"/>
       <c r="K34" s="85"/>
       <c r="L34" s="49"/>
       <c r="M34" s="42">
-        <v>0</v>
+        <f>63172+2544+469</f>
+        <v>66185</v>
       </c>
       <c r="N34" s="43">
-        <v>0</v>
+        <v>34449</v>
       </c>
       <c r="P34" s="69">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>110726</v>
       </c>
       <c r="Q34" s="45">
         <f t="shared" si="0"/>
@@ -10522,32 +10607,42 @@
       <c r="B35" s="32">
         <v>44986</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="86">
+        <v>15096</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>162</v>
+      </c>
       <c r="E35" s="35">
         <v>44986</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="36">
+        <v>129583</v>
+      </c>
       <c r="G35" s="37"/>
       <c r="H35" s="38">
         <v>44986</v>
       </c>
-      <c r="I35" s="39"/>
+      <c r="I35" s="39">
+        <v>1171</v>
+      </c>
       <c r="J35" s="87"/>
       <c r="K35" s="88"/>
       <c r="L35" s="89"/>
       <c r="M35" s="42">
-        <v>0</v>
+        <f>99843+6835.5</f>
+        <v>106678.5</v>
       </c>
       <c r="N35" s="43">
-        <v>0</v>
+        <v>5637</v>
       </c>
       <c r="P35" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>128582.5</v>
+      </c>
+      <c r="Q35" s="288">
+        <f t="shared" si="0"/>
+        <v>-1000.5</v>
       </c>
       <c r="R35" s="46">
         <v>0</v>
@@ -10558,32 +10653,42 @@
       <c r="B36" s="32">
         <v>44987</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
+      <c r="C36" s="90">
+        <v>21050</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>163</v>
+      </c>
       <c r="E36" s="35">
         <v>44987</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="36">
+        <v>96003</v>
+      </c>
       <c r="G36" s="92"/>
       <c r="H36" s="38">
         <v>44987</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="39">
+        <v>1438</v>
+      </c>
       <c r="J36" s="74"/>
       <c r="K36" s="85"/>
       <c r="L36" s="49"/>
       <c r="M36" s="42">
-        <v>0</v>
+        <f>223</f>
+        <v>223</v>
       </c>
       <c r="N36" s="43">
         <v>0</v>
       </c>
       <c r="P36" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>22711</v>
+      </c>
+      <c r="Q36" s="288">
+        <f t="shared" si="0"/>
+        <v>-73292</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -10594,17 +10699,25 @@
       <c r="B37" s="32">
         <v>44988</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
+      <c r="C37" s="93">
+        <v>7007</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>164</v>
+      </c>
       <c r="E37" s="35">
         <v>44988</v>
       </c>
-      <c r="F37" s="36"/>
+      <c r="F37" s="36">
+        <v>92756</v>
+      </c>
       <c r="G37" s="92"/>
       <c r="H37" s="38">
         <v>44988</v>
       </c>
-      <c r="I37" s="39"/>
+      <c r="I37" s="39">
+        <v>1872</v>
+      </c>
       <c r="J37" s="74"/>
       <c r="K37" s="85"/>
       <c r="L37" s="49"/>
@@ -10612,14 +10725,15 @@
         <v>0</v>
       </c>
       <c r="N37" s="43">
-        <v>0</v>
+        <v>6544</v>
       </c>
       <c r="P37" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15423</v>
+      </c>
+      <c r="Q37" s="288">
+        <f t="shared" si="0"/>
+        <v>-77333</v>
       </c>
       <c r="R37" s="46">
         <v>0</v>
@@ -10627,19 +10741,13 @@
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
-      <c r="B38" s="32">
-        <v>44989</v>
-      </c>
+      <c r="B38" s="32"/>
       <c r="C38" s="93"/>
       <c r="D38" s="94"/>
-      <c r="E38" s="35">
-        <v>44989</v>
-      </c>
+      <c r="E38" s="35"/>
       <c r="F38" s="36"/>
       <c r="G38" s="92"/>
-      <c r="H38" s="38">
-        <v>44989</v>
-      </c>
+      <c r="H38" s="38"/>
       <c r="I38" s="39"/>
       <c r="J38" s="74"/>
       <c r="K38" s="95"/>
@@ -10651,6 +10759,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q38" s="45">
@@ -10663,19 +10772,13 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
-      <c r="B39" s="32">
-        <v>44990</v>
-      </c>
+      <c r="B39" s="32"/>
       <c r="C39" s="93"/>
       <c r="D39" s="96"/>
-      <c r="E39" s="35">
-        <v>44990</v>
-      </c>
+      <c r="E39" s="35"/>
       <c r="F39" s="97"/>
       <c r="G39" s="92"/>
-      <c r="H39" s="38">
-        <v>44990</v>
-      </c>
+      <c r="H39" s="38"/>
       <c r="I39" s="98"/>
       <c r="J39" s="82"/>
       <c r="K39" s="95"/>
@@ -10687,6 +10790,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q39" s="45">
@@ -10717,6 +10821,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q40" s="45">
@@ -10845,9 +10950,15 @@
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="49"/>
+      <c r="J44" s="74">
+        <v>44982</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="49">
+        <v>23456.5</v>
+      </c>
       <c r="M44" s="42">
         <v>0</v>
       </c>
@@ -11000,21 +11111,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="319">
+      <c r="M49" s="321">
         <f>SUM(M5:M40)</f>
-        <v>1422057.3699999999</v>
-      </c>
-      <c r="N49" s="319">
+        <v>1813712.8699999999</v>
+      </c>
+      <c r="N49" s="321">
         <f>SUM(N5:N40)</f>
-        <v>1115981</v>
+        <v>1314937</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3089117.3699999996</v>
-      </c>
-      <c r="Q49" s="331">
+        <v>3805932.8699999996</v>
+      </c>
+      <c r="Q49" s="333">
         <f>SUM(Q5:Q40)</f>
-        <v>-42894.630000000005</v>
+        <v>-151621.13</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -11033,10 +11144,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
+      <c r="M50" s="322"/>
+      <c r="N50" s="322"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="332"/>
+      <c r="Q50" s="334"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -11091,11 +11202,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="335">
         <f>M49+N49</f>
-        <v>2538038.37</v>
-      </c>
-      <c r="N53" s="334"/>
+        <v>3128649.87</v>
+      </c>
+      <c r="N53" s="336"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11478,7 +11589,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>475285.5</v>
+        <v>563153.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -11486,7 +11597,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>3115445</v>
+        <v>3940787</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -11494,7 +11605,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>63650.5</v>
+        <v>75875.5</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -11502,7 +11613,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>128375.65</v>
+        <v>177943.15</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -11520,50 +11631,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="327" t="s">
+      <c r="H77" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="328"/>
+      <c r="I77" s="330"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="329">
+      <c r="K77" s="331">
         <f>I75+L75</f>
-        <v>192026.15</v>
-      </c>
-      <c r="L77" s="330"/>
+        <v>253818.65</v>
+      </c>
+      <c r="L77" s="332"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="321" t="s">
+      <c r="D78" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="321"/>
+      <c r="E78" s="323"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>2448133.35</v>
+        <v>3123814.85</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="322" t="s">
+      <c r="D79" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="322"/>
+      <c r="E79" s="324"/>
       <c r="F79" s="101">
         <v>0</v>
       </c>
-      <c r="I79" s="323" t="s">
+      <c r="I79" s="325" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="324"/>
-      <c r="K79" s="325">
+      <c r="J79" s="326"/>
+      <c r="K79" s="327">
         <f>F81+F82+F83</f>
-        <v>2448133.35</v>
-      </c>
-      <c r="L79" s="325"/>
+        <v>3123814.85</v>
+      </c>
+      <c r="L79" s="327"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11597,18 +11708,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>2448133.35</v>
+        <v>3123814.85</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="326">
+      <c r="K81" s="328">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="325"/>
+      <c r="L81" s="327"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11623,22 +11734,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="314" t="s">
+      <c r="D83" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="315"/>
+      <c r="E83" s="317"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="316" t="s">
+      <c r="I83" s="318" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="317"/>
-      <c r="K83" s="318">
+      <c r="J83" s="319"/>
+      <c r="K83" s="320">
         <f>K79+K81</f>
-        <v>-1056044.7199999997</v>
-      </c>
-      <c r="L83" s="318"/>
+        <v>-380363.21999999974</v>
+      </c>
+      <c r="L83" s="320"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11819,7 +11930,7 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -12591,10 +12702,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="344"/>
-      <c r="J36" s="345"/>
-      <c r="K36" s="345"/>
-      <c r="L36" s="346"/>
+      <c r="I36" s="346"/>
+      <c r="J36" s="347"/>
+      <c r="K36" s="347"/>
+      <c r="L36" s="348"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -12611,10 +12722,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="344"/>
-      <c r="J37" s="345"/>
-      <c r="K37" s="345"/>
-      <c r="L37" s="346"/>
+      <c r="I37" s="346"/>
+      <c r="J37" s="347"/>
+      <c r="K37" s="347"/>
+      <c r="L37" s="348"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -12671,10 +12782,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="347" t="s">
+      <c r="I40" s="349" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="348"/>
+      <c r="J40" s="350"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -12693,8 +12804,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="349"/>
-      <c r="J41" s="350"/>
+      <c r="I41" s="351"/>
+      <c r="J41" s="352"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -12713,8 +12824,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="351"/>
-      <c r="J42" s="352"/>
+      <c r="I42" s="353"/>
+      <c r="J42" s="354"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -13218,10 +13329,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="353" t="s">
+      <c r="I67" s="355" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="354"/>
+      <c r="J67" s="356"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -13241,11 +13352,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="357" t="s">
+      <c r="G68" s="359" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="359"/>
-      <c r="J68" s="360"/>
+      <c r="I68" s="361"/>
+      <c r="J68" s="362"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -13256,7 +13367,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="358"/>
+      <c r="G69" s="360"/>
       <c r="I69" s="296"/>
       <c r="J69" s="297"/>
       <c r="K69" s="298"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  ZAVALETA   FEBRERO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="215">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -646,6 +646,156 @@
   </si>
   <si>
     <t>LOMO-POLLO-QUESOS-JAMON-</t>
+  </si>
+  <si>
+    <t>24899 D</t>
+  </si>
+  <si>
+    <t>00050 D</t>
+  </si>
+  <si>
+    <t>00109 E</t>
+  </si>
+  <si>
+    <t>00217 E</t>
+  </si>
+  <si>
+    <t>00364 E</t>
+  </si>
+  <si>
+    <t>00397 E</t>
+  </si>
+  <si>
+    <t>00513 E</t>
+  </si>
+  <si>
+    <t>00585 E</t>
+  </si>
+  <si>
+    <t>00629 E</t>
+  </si>
+  <si>
+    <t>00745 E</t>
+  </si>
+  <si>
+    <t>00845 E</t>
+  </si>
+  <si>
+    <t>00955 E</t>
+  </si>
+  <si>
+    <t>01092 E</t>
+  </si>
+  <si>
+    <t>01148 E</t>
+  </si>
+  <si>
+    <t>01325 E</t>
+  </si>
+  <si>
+    <t>01355 E</t>
+  </si>
+  <si>
+    <t>01496 E</t>
+  </si>
+  <si>
+    <t>01529 E</t>
+  </si>
+  <si>
+    <t>01584 E</t>
+  </si>
+  <si>
+    <t>01748 E</t>
+  </si>
+  <si>
+    <t>01749 E</t>
+  </si>
+  <si>
+    <t>01896 E</t>
+  </si>
+  <si>
+    <t>01897 E</t>
+  </si>
+  <si>
+    <t>01956 E</t>
+  </si>
+  <si>
+    <t>02076 E</t>
+  </si>
+  <si>
+    <t>02094 E</t>
+  </si>
+  <si>
+    <t>02156 E</t>
+  </si>
+  <si>
+    <t>02262 E</t>
+  </si>
+  <si>
+    <t>02331 E</t>
+  </si>
+  <si>
+    <t>02426 E</t>
+  </si>
+  <si>
+    <t>02631 E</t>
+  </si>
+  <si>
+    <t>02732 E</t>
+  </si>
+  <si>
+    <t>02867 E</t>
+  </si>
+  <si>
+    <t>02872 E</t>
+  </si>
+  <si>
+    <t>02897 E</t>
+  </si>
+  <si>
+    <t>03012 E</t>
+  </si>
+  <si>
+    <t>3-ene-2023</t>
+  </si>
+  <si>
+    <t>4-ene-2023</t>
+  </si>
+  <si>
+    <t>5-ene-2023</t>
+  </si>
+  <si>
+    <t>6-ene-2023</t>
+  </si>
+  <si>
+    <t>7-ene-2023</t>
+  </si>
+  <si>
+    <t>30-12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL 26 DE ENERO 2023  SE APLICO CON VALE POR </t>
+  </si>
+  <si>
+    <t>DEUDA ZAVALETA A CENTRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEUDA DE CENTRAL A ZAVALETA </t>
+  </si>
+  <si>
+    <t>CENTRAL PAGO A ZAVALETA EN EFECTIVO</t>
+  </si>
+  <si>
+    <t>14-Feb-23--21-Feb-23</t>
+  </si>
+  <si>
+    <t>21-Feb-23--27-Feb-23</t>
+  </si>
+  <si>
+    <t>27-Feb-23--28-Feb-23</t>
+  </si>
+  <si>
+    <t>28-Feb-23--03-Mar-23</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,8 +1260,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="82">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -2140,12 +2302,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2696,9 +2871,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2909,6 +3081,34 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="17" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2918,8 +3118,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF66"/>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF66FF66"/>
       <color rgb="FF990099"/>
       <color rgb="FF800080"/>
     </mruColors>
@@ -4103,8 +4304,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4130,23 +4331,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="339"/>
-      <c r="C1" s="341" t="s">
+      <c r="B1" s="336"/>
+      <c r="C1" s="338" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
+      <c r="J1" s="339"/>
+      <c r="K1" s="339"/>
+      <c r="L1" s="339"/>
+      <c r="M1" s="339"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="340"/>
+      <c r="B2" s="337"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4156,24 +4357,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="343" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="344"/>
+      <c r="B3" s="340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="341"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="345" t="s">
+      <c r="H3" s="342" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="345"/>
+      <c r="I3" s="342"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="337" t="s">
+      <c r="P3" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="310" t="s">
+      <c r="R3" s="307" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4188,14 +4389,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="H4" s="314" t="s">
+      <c r="F4" s="310"/>
+      <c r="H4" s="311" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="315"/>
+      <c r="I4" s="312"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4205,11 +4406,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="338"/>
+      <c r="P4" s="335"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="311"/>
+      <c r="R4" s="308"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -4254,7 +4455,7 @@
       <c r="Q5" s="45">
         <v>0</v>
       </c>
-      <c r="R5" s="285">
+      <c r="R5" s="282">
         <v>31174</v>
       </c>
     </row>
@@ -4344,7 +4545,7 @@
       <c r="Q7" s="45">
         <v>0</v>
       </c>
-      <c r="R7" s="285">
+      <c r="R7" s="282">
         <v>1028</v>
       </c>
     </row>
@@ -4433,7 +4634,7 @@
       <c r="Q9" s="45">
         <v>0</v>
       </c>
-      <c r="R9" s="285">
+      <c r="R9" s="282">
         <v>2037</v>
       </c>
     </row>
@@ -4897,7 +5098,7 @@
       <c r="J19" s="40">
         <v>44949</v>
       </c>
-      <c r="K19" s="286" t="s">
+      <c r="K19" s="283" t="s">
         <v>93</v>
       </c>
       <c r="L19" s="59">
@@ -5009,7 +5210,7 @@
       <c r="Q21" s="45">
         <v>0</v>
       </c>
-      <c r="R21" s="285">
+      <c r="R21" s="282">
         <v>45047</v>
       </c>
     </row>
@@ -5040,7 +5241,7 @@
       <c r="J22" s="40">
         <v>44952</v>
       </c>
-      <c r="K22" s="287" t="s">
+      <c r="K22" s="284" t="s">
         <v>97</v>
       </c>
       <c r="L22" s="62">
@@ -5060,7 +5261,7 @@
       <c r="Q22" s="45">
         <v>0</v>
       </c>
-      <c r="R22" s="285">
+      <c r="R22" s="282">
         <v>492648</v>
       </c>
       <c r="S22" s="63"/>
@@ -5153,7 +5354,7 @@
         <f>N24+M24+L24+I24+C24</f>
         <v>134101</v>
       </c>
-      <c r="Q24" s="288">
+      <c r="Q24" s="285">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
@@ -5935,11 +6136,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="321">
+      <c r="M49" s="318">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="321">
+      <c r="N49" s="318">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -5947,7 +6148,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="333">
+      <c r="Q49" s="330">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -5968,10 +6169,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="322"/>
-      <c r="N50" s="322"/>
+      <c r="M50" s="319"/>
+      <c r="N50" s="319"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="334"/>
+      <c r="Q50" s="331"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -6026,11 +6227,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="335">
+      <c r="M53" s="332">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="336"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6455,26 +6656,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="329" t="s">
+      <c r="H77" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="330"/>
+      <c r="I77" s="327"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="331">
+      <c r="K77" s="328">
         <f>I75+L75</f>
         <v>671983.52</v>
       </c>
-      <c r="L77" s="332"/>
+      <c r="L77" s="329"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="323" t="s">
+      <c r="D78" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="323"/>
+      <c r="E78" s="320"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1675036.98</v>
@@ -6483,22 +6684,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="324" t="s">
+      <c r="D79" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="324"/>
+      <c r="E79" s="321"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="325" t="s">
+      <c r="I79" s="322" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="326"/>
-      <c r="K79" s="327">
+      <c r="J79" s="323"/>
+      <c r="K79" s="324">
         <f>F81+F82+F83</f>
         <v>3594568.57</v>
       </c>
-      <c r="L79" s="327"/>
+      <c r="L79" s="324"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6539,11 +6740,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="328">
+      <c r="K81" s="325">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="327"/>
+      <c r="L81" s="324"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6560,22 +6761,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="316" t="s">
+      <c r="D83" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="317"/>
+      <c r="E83" s="314"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="318" t="s">
+      <c r="I83" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="319"/>
-      <c r="K83" s="320">
+      <c r="J83" s="316"/>
+      <c r="K83" s="317">
         <f>K79+K81</f>
         <v>149163.5</v>
       </c>
-      <c r="L83" s="320"/>
+      <c r="L83" s="317"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6760,14 +6961,14 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="258" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="283" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="280" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -6775,9 +6976,9 @@
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="152" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="271" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6851,26 +7052,24 @@
       <c r="D3" s="217">
         <v>8208</v>
       </c>
-      <c r="E3" s="218"/>
-      <c r="F3" s="217"/>
+      <c r="E3" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F3" s="217">
+        <v>8208</v>
+      </c>
       <c r="G3" s="219">
         <f>D3-F3</f>
-        <v>8208</v>
-      </c>
-      <c r="I3" s="290" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="291">
-        <v>11277</v>
-      </c>
-      <c r="K3" s="292">
-        <v>9486.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" s="228"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="230"/>
       <c r="L3" s="218"/>
-      <c r="M3" s="220"/>
+      <c r="M3" s="289"/>
       <c r="N3" s="221">
         <f>K3-M3</f>
-        <v>9486.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -6883,27 +7082,35 @@
       <c r="D4" s="101">
         <v>14274</v>
       </c>
-      <c r="E4" s="224"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F4" s="101">
+        <v>14274</v>
+      </c>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
-        <v>14274</v>
+        <v>0</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="290" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="291">
-        <v>11291</v>
-      </c>
-      <c r="K4" s="292">
-        <v>3878.4</v>
-      </c>
-      <c r="L4" s="218"/>
-      <c r="M4" s="220"/>
+      <c r="I4" s="287" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="288">
+        <v>11236</v>
+      </c>
+      <c r="K4" s="289">
+        <v>4399.2</v>
+      </c>
+      <c r="L4" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M4" s="361">
+        <v>4399.2</v>
+      </c>
       <c r="N4" s="227">
         <f>N3+K4-M4</f>
-        <v>13364.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6916,26 +7123,34 @@
       <c r="D5" s="101">
         <v>53412.4</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="101"/>
+      <c r="E5" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F5" s="101">
+        <v>53412.4</v>
+      </c>
       <c r="G5" s="225">
         <f t="shared" si="0"/>
-        <v>53412.4</v>
-      </c>
-      <c r="I5" s="290" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="291">
-        <v>11302</v>
-      </c>
-      <c r="K5" s="292">
-        <v>480</v>
-      </c>
-      <c r="L5" s="218"/>
-      <c r="M5" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="228" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" s="286">
+        <v>11249</v>
+      </c>
+      <c r="K5" s="230">
+        <v>9310.4</v>
+      </c>
+      <c r="L5" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M5" s="362">
+        <v>9310.4</v>
+      </c>
       <c r="N5" s="227">
         <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
-        <v>13844.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6948,26 +7163,34 @@
       <c r="D6" s="101">
         <v>53055.3</v>
       </c>
-      <c r="E6" s="224"/>
-      <c r="F6" s="101"/>
+      <c r="E6" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F6" s="101">
+        <v>53055.3</v>
+      </c>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>53055.3</v>
-      </c>
-      <c r="I6" s="290" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="291">
-        <v>11309</v>
-      </c>
-      <c r="K6" s="292">
-        <v>9404</v>
-      </c>
-      <c r="L6" s="218"/>
-      <c r="M6" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="287" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="288">
+        <v>11253</v>
+      </c>
+      <c r="K6" s="289">
+        <v>6726</v>
+      </c>
+      <c r="L6" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M6" s="361">
+        <v>6726</v>
+      </c>
       <c r="N6" s="227">
         <f t="shared" si="1"/>
-        <v>23248.799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6980,26 +7203,34 @@
       <c r="D7" s="101">
         <v>46137.599999999999</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="101"/>
+      <c r="E7" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F7" s="101">
+        <v>46137.599999999999</v>
+      </c>
       <c r="G7" s="225">
         <f t="shared" si="0"/>
-        <v>46137.599999999999</v>
-      </c>
-      <c r="I7" s="290" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="291">
-        <v>11329</v>
-      </c>
-      <c r="K7" s="292">
-        <v>10195.200000000001</v>
-      </c>
-      <c r="L7" s="218"/>
-      <c r="M7" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="287" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="288">
+        <v>11256</v>
+      </c>
+      <c r="K7" s="289">
+        <v>600</v>
+      </c>
+      <c r="L7" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M7" s="361">
+        <v>600</v>
+      </c>
       <c r="N7" s="227">
         <f t="shared" si="1"/>
-        <v>33444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7012,26 +7243,34 @@
       <c r="D8" s="101">
         <v>6800</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="101"/>
+      <c r="E8" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F8" s="101">
+        <v>6800</v>
+      </c>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>6800</v>
-      </c>
-      <c r="I8" s="290" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="291">
-        <v>11341</v>
-      </c>
-      <c r="K8" s="292">
-        <v>600</v>
-      </c>
-      <c r="L8" s="218"/>
-      <c r="M8" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="228" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="286">
+        <v>11260</v>
+      </c>
+      <c r="K8" s="230">
+        <v>9360</v>
+      </c>
+      <c r="L8" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M8" s="362">
+        <v>9360</v>
+      </c>
       <c r="N8" s="227">
         <f t="shared" si="1"/>
-        <v>34044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7044,26 +7283,34 @@
       <c r="D9" s="101">
         <v>76020.600000000006</v>
       </c>
-      <c r="E9" s="224"/>
-      <c r="F9" s="101"/>
+      <c r="E9" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F9" s="101">
+        <v>76020.600000000006</v>
+      </c>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>76020.600000000006</v>
+        <v>0</v>
       </c>
       <c r="I9" s="228" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="289">
-        <v>11342</v>
+        <v>204</v>
+      </c>
+      <c r="J9" s="286">
+        <v>11264</v>
       </c>
       <c r="K9" s="230">
         <v>360</v>
       </c>
-      <c r="L9" s="218"/>
-      <c r="M9" s="220"/>
+      <c r="L9" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M9" s="362">
+        <v>360</v>
+      </c>
       <c r="N9" s="227">
         <f t="shared" si="1"/>
-        <v>34404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -7076,30 +7323,38 @@
       <c r="D10" s="101">
         <v>13312</v>
       </c>
-      <c r="E10" s="224"/>
-      <c r="F10" s="101"/>
+      <c r="E10" s="218">
+        <v>44971</v>
+      </c>
+      <c r="F10" s="101">
+        <v>13312</v>
+      </c>
       <c r="G10" s="225">
         <f t="shared" si="0"/>
-        <v>13312</v>
+        <v>0</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="290" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="291">
-        <v>11349</v>
-      </c>
-      <c r="K10" s="292">
-        <v>480</v>
-      </c>
-      <c r="L10" s="218"/>
-      <c r="M10" s="220"/>
+      <c r="I10" s="287" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="288">
+        <v>11269</v>
+      </c>
+      <c r="K10" s="289">
+        <v>360</v>
+      </c>
+      <c r="L10" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M10" s="361">
+        <v>360</v>
+      </c>
       <c r="N10" s="227">
         <f t="shared" si="1"/>
-        <v>34884</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="222">
         <v>44932</v>
       </c>
@@ -7109,26 +7364,35 @@
       <c r="D11" s="101">
         <v>73262.490000000005</v>
       </c>
-      <c r="E11" s="224"/>
-      <c r="F11" s="101"/>
+      <c r="E11" s="385" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="101">
+        <f>55584.1+17678.39</f>
+        <v>73262.489999999991</v>
+      </c>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>73262.490000000005</v>
-      </c>
-      <c r="I11" s="228" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="289">
-        <v>11362</v>
-      </c>
-      <c r="K11" s="230">
-        <v>9720.7999999999993</v>
-      </c>
-      <c r="L11" s="218"/>
-      <c r="M11" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="287" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="288">
+        <v>11277</v>
+      </c>
+      <c r="K11" s="289">
+        <v>9486.4</v>
+      </c>
+      <c r="L11" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M11" s="361">
+        <v>9486.4</v>
+      </c>
       <c r="N11" s="227">
         <f t="shared" si="1"/>
-        <v>44604.800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7141,26 +7405,34 @@
       <c r="D12" s="101">
         <v>16756.8</v>
       </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="101"/>
+      <c r="E12" s="224">
+        <v>44978</v>
+      </c>
+      <c r="F12" s="101">
+        <v>16756.8</v>
+      </c>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>16756.8</v>
-      </c>
-      <c r="I12" s="228" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="289">
-        <v>11376</v>
-      </c>
-      <c r="K12" s="230">
-        <v>480</v>
-      </c>
-      <c r="L12" s="218"/>
-      <c r="M12" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="287" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="288">
+        <v>11291</v>
+      </c>
+      <c r="K12" s="289">
+        <v>3878.4</v>
+      </c>
+      <c r="L12" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M12" s="361">
+        <v>3878.4</v>
+      </c>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>45084.800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7173,26 +7445,34 @@
       <c r="D13" s="101">
         <v>4893</v>
       </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="101"/>
+      <c r="E13" s="224">
+        <v>44978</v>
+      </c>
+      <c r="F13" s="101">
+        <v>4893</v>
+      </c>
       <c r="G13" s="225">
         <f t="shared" si="0"/>
-        <v>4893</v>
-      </c>
-      <c r="I13" s="290" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="291">
-        <v>11390</v>
-      </c>
-      <c r="K13" s="292">
+        <v>0</v>
+      </c>
+      <c r="I13" s="287" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="288">
+        <v>11302</v>
+      </c>
+      <c r="K13" s="289">
         <v>480</v>
       </c>
-      <c r="L13" s="218"/>
-      <c r="M13" s="220"/>
+      <c r="L13" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M13" s="361">
+        <v>480</v>
+      </c>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>45564.800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7205,29 +7485,37 @@
       <c r="D14" s="101">
         <v>10042.200000000001</v>
       </c>
-      <c r="E14" s="224"/>
-      <c r="F14" s="101"/>
+      <c r="E14" s="224">
+        <v>44978</v>
+      </c>
+      <c r="F14" s="101">
+        <v>10042.200000000001</v>
+      </c>
       <c r="G14" s="225">
         <f t="shared" si="0"/>
-        <v>10042.200000000001</v>
-      </c>
-      <c r="I14" s="290" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="291">
-        <v>11395</v>
-      </c>
-      <c r="K14" s="292">
-        <v>9412.7999999999993</v>
-      </c>
-      <c r="L14" s="218"/>
-      <c r="M14" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="287" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="288">
+        <v>11309</v>
+      </c>
+      <c r="K14" s="289">
+        <v>9404</v>
+      </c>
+      <c r="L14" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M14" s="361">
+        <v>9404</v>
+      </c>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>54977.600000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="222">
         <v>44935</v>
       </c>
@@ -7237,26 +7525,35 @@
       <c r="D15" s="101">
         <v>79966.960000000006</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="101"/>
+      <c r="E15" s="385" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="101">
+        <f>79615.61+351.35</f>
+        <v>79966.960000000006</v>
+      </c>
       <c r="G15" s="225">
         <f t="shared" si="0"/>
-        <v>79966.960000000006</v>
-      </c>
-      <c r="I15" s="228" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="289">
-        <v>11397</v>
-      </c>
-      <c r="K15" s="230">
-        <v>360</v>
-      </c>
-      <c r="L15" s="218"/>
-      <c r="M15" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="287" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="288">
+        <v>11329</v>
+      </c>
+      <c r="K15" s="289">
+        <v>10195.200000000001</v>
+      </c>
+      <c r="L15" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M15" s="361">
+        <v>10195.200000000001</v>
+      </c>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>55337.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7269,26 +7566,34 @@
       <c r="D16" s="101">
         <v>77309.399999999994</v>
       </c>
-      <c r="E16" s="224"/>
-      <c r="F16" s="101"/>
+      <c r="E16" s="224">
+        <v>44984</v>
+      </c>
+      <c r="F16" s="101">
+        <v>77309.399999999994</v>
+      </c>
       <c r="G16" s="225">
         <f t="shared" si="0"/>
-        <v>77309.399999999994</v>
-      </c>
-      <c r="I16" s="290" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="291">
-        <v>11407</v>
-      </c>
-      <c r="K16" s="292">
-        <v>480</v>
-      </c>
-      <c r="L16" s="218"/>
-      <c r="M16" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="287" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="288">
+        <v>11341</v>
+      </c>
+      <c r="K16" s="289">
+        <v>600</v>
+      </c>
+      <c r="L16" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M16" s="361">
+        <v>600</v>
+      </c>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>55817.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7301,26 +7606,34 @@
       <c r="D17" s="101">
         <v>5629.6</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="224">
+        <v>44984</v>
+      </c>
+      <c r="F17" s="101">
+        <v>5629.6</v>
+      </c>
       <c r="G17" s="225">
         <f t="shared" si="0"/>
-        <v>5629.6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="228" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="289">
-        <v>11432</v>
+        <v>108</v>
+      </c>
+      <c r="J17" s="286">
+        <v>11342</v>
       </c>
       <c r="K17" s="230">
         <v>360</v>
       </c>
-      <c r="L17" s="218"/>
-      <c r="M17" s="220"/>
+      <c r="L17" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M17" s="361">
+        <v>360</v>
+      </c>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>56177.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7333,26 +7646,34 @@
       <c r="D18" s="101">
         <v>135787.84</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="101"/>
+      <c r="E18" s="224">
+        <v>44984</v>
+      </c>
+      <c r="F18" s="101">
+        <v>135787.84</v>
+      </c>
       <c r="G18" s="225">
         <f t="shared" si="0"/>
-        <v>135787.84</v>
-      </c>
-      <c r="I18" s="228" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="289">
-        <v>11434</v>
-      </c>
-      <c r="K18" s="230">
-        <v>4240</v>
-      </c>
-      <c r="L18" s="218"/>
-      <c r="M18" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="287" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="288">
+        <v>11349</v>
+      </c>
+      <c r="K18" s="289">
+        <v>480</v>
+      </c>
+      <c r="L18" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M18" s="361">
+        <v>480</v>
+      </c>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>60417.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7365,29 +7686,37 @@
       <c r="D19" s="101">
         <v>19678.25</v>
       </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="101"/>
+      <c r="E19" s="224">
+        <v>44984</v>
+      </c>
+      <c r="F19" s="101">
+        <v>19678.25</v>
+      </c>
       <c r="G19" s="225">
         <f t="shared" si="0"/>
-        <v>19678.25</v>
-      </c>
-      <c r="I19" s="290" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="291">
-        <v>11437</v>
-      </c>
-      <c r="K19" s="292">
-        <v>480</v>
-      </c>
-      <c r="L19" s="218"/>
-      <c r="M19" s="220"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="228" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="286">
+        <v>11362</v>
+      </c>
+      <c r="K19" s="230">
+        <v>9720.7999999999993</v>
+      </c>
+      <c r="L19" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M19" s="361">
+        <v>9720.7999999999993</v>
+      </c>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>60897.600000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="222">
         <v>44939</v>
       </c>
@@ -7397,29 +7726,38 @@
       <c r="D20" s="101">
         <v>53428.12</v>
       </c>
-      <c r="E20" s="224"/>
-      <c r="F20" s="101"/>
+      <c r="E20" s="385" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="101">
+        <f>14697.56+38730.56</f>
+        <v>53428.119999999995</v>
+      </c>
       <c r="G20" s="225">
         <f t="shared" si="0"/>
-        <v>53428.12</v>
+        <v>0</v>
       </c>
       <c r="I20" s="228" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="289">
-        <v>11442</v>
+        <v>111</v>
+      </c>
+      <c r="J20" s="286">
+        <v>11376</v>
       </c>
       <c r="K20" s="230">
-        <v>9707.2000000000007</v>
-      </c>
-      <c r="L20" s="218"/>
-      <c r="M20" s="231"/>
+        <v>480</v>
+      </c>
+      <c r="L20" s="360">
+        <v>44952</v>
+      </c>
+      <c r="M20" s="361">
+        <v>480</v>
+      </c>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>70604.800000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="222">
         <v>44940</v>
       </c>
@@ -7429,26 +7767,30 @@
       <c r="D21" s="101">
         <v>58795.82</v>
       </c>
-      <c r="E21" s="224"/>
-      <c r="F21" s="101"/>
+      <c r="E21" s="224">
+        <v>44985</v>
+      </c>
+      <c r="F21" s="101">
+        <v>58795.82</v>
+      </c>
       <c r="G21" s="225">
         <f t="shared" si="0"/>
-        <v>58795.82</v>
-      </c>
-      <c r="I21" s="290" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="291">
-        <v>11455</v>
-      </c>
-      <c r="K21" s="292">
+        <v>0</v>
+      </c>
+      <c r="I21" s="287" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="288">
+        <v>11390</v>
+      </c>
+      <c r="K21" s="289">
         <v>480</v>
       </c>
       <c r="L21" s="218"/>
-      <c r="M21" s="231"/>
+      <c r="M21" s="220"/>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -7461,21 +7803,31 @@
       <c r="D22" s="101">
         <v>5615.8</v>
       </c>
-      <c r="E22" s="224"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="224">
+        <v>44985</v>
+      </c>
+      <c r="F22" s="101">
+        <v>5615.8</v>
+      </c>
       <c r="G22" s="225">
         <f t="shared" si="0"/>
-        <v>5615.8</v>
+        <v>0</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="293"/>
-      <c r="K22" s="237"/>
+      <c r="I22" s="287" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="288">
+        <v>11395</v>
+      </c>
+      <c r="K22" s="289">
+        <v>9412.7999999999993</v>
+      </c>
       <c r="L22" s="218"/>
-      <c r="M22" s="231"/>
+      <c r="M22" s="220"/>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>9892.7999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7488,24 +7840,34 @@
       <c r="D23" s="101">
         <v>6690</v>
       </c>
-      <c r="E23" s="224"/>
-      <c r="F23" s="101"/>
+      <c r="E23" s="224">
+        <v>44985</v>
+      </c>
+      <c r="F23" s="101">
+        <v>6690</v>
+      </c>
       <c r="G23" s="225">
         <f t="shared" si="0"/>
-        <v>6690</v>
+        <v>0</v>
       </c>
       <c r="H23" s="233"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="293"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="224"/>
-      <c r="M23" s="101"/>
+      <c r="I23" s="228" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="286">
+        <v>11397</v>
+      </c>
+      <c r="K23" s="230">
+        <v>360</v>
+      </c>
+      <c r="L23" s="218"/>
+      <c r="M23" s="220"/>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10252.799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="222">
         <v>44942</v>
       </c>
@@ -7515,21 +7877,32 @@
       <c r="D24" s="101">
         <v>22678.6</v>
       </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="101"/>
+      <c r="E24" s="385" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="101">
+        <f>11490.35+11188.25</f>
+        <v>22678.6</v>
+      </c>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>22678.6</v>
+        <v>0</v>
       </c>
       <c r="H24" s="233"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="293"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="101"/>
+      <c r="I24" s="287" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="288">
+        <v>11407</v>
+      </c>
+      <c r="K24" s="289">
+        <v>480</v>
+      </c>
+      <c r="L24" s="218"/>
+      <c r="M24" s="220"/>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>10732.8</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7542,21 +7915,31 @@
       <c r="D25" s="101">
         <v>3581.3</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="101"/>
+      <c r="E25" s="224">
+        <v>44988</v>
+      </c>
+      <c r="F25" s="101">
+        <v>3581.3</v>
+      </c>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>3581.3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="101"/>
+      <c r="I25" s="228" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="286">
+        <v>11432</v>
+      </c>
+      <c r="K25" s="230">
+        <v>360</v>
+      </c>
+      <c r="L25" s="218"/>
+      <c r="M25" s="220"/>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>11092.8</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7569,21 +7952,31 @@
       <c r="D26" s="101">
         <v>102999.4</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="101"/>
+      <c r="E26" s="224">
+        <v>44988</v>
+      </c>
+      <c r="F26" s="101">
+        <v>102999.4</v>
+      </c>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>102999.4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="293"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="101"/>
+      <c r="I26" s="228" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="286">
+        <v>11434</v>
+      </c>
+      <c r="K26" s="230">
+        <v>4240</v>
+      </c>
+      <c r="L26" s="218"/>
+      <c r="M26" s="220"/>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>15332.8</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7596,24 +7989,34 @@
       <c r="D27" s="101">
         <v>64760.18</v>
       </c>
-      <c r="E27" s="224"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="224">
+        <v>44988</v>
+      </c>
+      <c r="F27" s="101">
+        <v>64760.18</v>
+      </c>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>64760.18</v>
+        <v>0</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="293"/>
-      <c r="K27" s="237"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="101"/>
+      <c r="I27" s="287" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="288">
+        <v>11437</v>
+      </c>
+      <c r="K27" s="289">
+        <v>480</v>
+      </c>
+      <c r="L27" s="218"/>
+      <c r="M27" s="220"/>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15812.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B28" s="222">
         <v>44946</v>
       </c>
@@ -7623,24 +8026,34 @@
       <c r="D28" s="101">
         <v>59473.8</v>
       </c>
-      <c r="E28" s="224"/>
-      <c r="F28" s="101"/>
+      <c r="E28" s="224">
+        <v>44988</v>
+      </c>
+      <c r="F28" s="101">
+        <v>59473.8</v>
+      </c>
       <c r="G28" s="225">
         <f t="shared" si="0"/>
-        <v>59473.8</v>
+        <v>0</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="280"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="101"/>
+      <c r="I28" s="228" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="286">
+        <v>11442</v>
+      </c>
+      <c r="K28" s="230">
+        <v>9707.2000000000007</v>
+      </c>
+      <c r="L28" s="218"/>
+      <c r="M28" s="231"/>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="222">
         <v>44947</v>
       </c>
@@ -7650,21 +8063,31 @@
       <c r="D29" s="101">
         <v>110210.4</v>
       </c>
-      <c r="E29" s="224"/>
-      <c r="F29" s="101"/>
+      <c r="E29" s="224">
+        <v>44988</v>
+      </c>
+      <c r="F29" s="101">
+        <v>17382.04</v>
+      </c>
       <c r="G29" s="225">
         <f t="shared" si="0"/>
-        <v>110210.4</v>
+        <v>92828.359999999986</v>
       </c>
       <c r="H29" s="234"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="284"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="101"/>
+      <c r="I29" s="287" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="288">
+        <v>11455</v>
+      </c>
+      <c r="K29" s="289">
+        <v>480</v>
+      </c>
+      <c r="L29" s="218"/>
+      <c r="M29" s="231"/>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7685,14 +8108,14 @@
         <v>40856.28</v>
       </c>
       <c r="H30" s="234"/>
-      <c r="I30" s="280"/>
-      <c r="J30" s="284"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="281"/>
       <c r="K30" s="237"/>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7721,7 +8144,7 @@
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7750,7 +8173,7 @@
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7778,7 +8201,7 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -7804,7 +8227,7 @@
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7830,7 +8253,7 @@
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7849,14 +8272,14 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="346"/>
-      <c r="J36" s="347"/>
-      <c r="K36" s="347"/>
-      <c r="L36" s="348"/>
+      <c r="I36" s="343"/>
+      <c r="J36" s="344"/>
+      <c r="K36" s="344"/>
+      <c r="L36" s="345"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7875,14 +8298,14 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="346"/>
-      <c r="J37" s="347"/>
-      <c r="K37" s="347"/>
-      <c r="L37" s="348"/>
+      <c r="I37" s="343"/>
+      <c r="J37" s="344"/>
+      <c r="K37" s="344"/>
+      <c r="L37" s="345"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7902,7 +8325,7 @@
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7922,7 +8345,7 @@
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7935,16 +8358,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="349" t="s">
+      <c r="I40" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="350"/>
+      <c r="J40" s="347"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7957,14 +8380,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="351"/>
-      <c r="J41" s="352"/>
+      <c r="I41" s="348"/>
+      <c r="J41" s="349"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -7977,14 +8400,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="353"/>
-      <c r="J42" s="354"/>
+      <c r="I42" s="350"/>
+      <c r="J42" s="351"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8004,7 +8427,7 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8024,7 +8447,7 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8044,7 +8467,7 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8064,7 +8487,7 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8084,7 +8507,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8104,7 +8527,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8124,7 +8547,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8144,7 +8567,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8164,7 +8587,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8184,7 +8607,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8204,7 +8627,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8224,7 +8647,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8244,7 +8667,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8264,7 +8687,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8284,7 +8707,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8304,7 +8727,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8324,7 +8747,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8344,7 +8767,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8364,7 +8787,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8384,7 +8807,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8404,7 +8827,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8424,7 +8847,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8444,7 +8867,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>71084.800000000003</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8476,24 +8899,24 @@
       <c r="E67" s="261"/>
       <c r="F67" s="262">
         <f>SUM(F3:F66)</f>
-        <v>0</v>
+        <v>1089951.5</v>
       </c>
       <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
-        <v>1513561.68</v>
-      </c>
-      <c r="I67" s="355" t="s">
+        <v>423610.18</v>
+      </c>
+      <c r="I67" s="352" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="356"/>
+      <c r="J67" s="353"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
-        <v>71084.800000000003</v>
+        <v>102200.40000000001</v>
       </c>
       <c r="L67" s="265"/>
       <c r="M67" s="266">
         <f>SUM(M3:M66)</f>
-        <v>0</v>
+        <v>76200.400000000009</v>
       </c>
       <c r="N67" s="263">
         <f>N66</f>
@@ -8505,22 +8928,22 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="359" t="s">
+      <c r="G68" s="356" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="357"/>
-      <c r="J68" s="358"/>
+      <c r="I68" s="354"/>
+      <c r="J68" s="355"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="270"/>
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="360"/>
+      <c r="G69" s="357"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -8531,116 +8954,161 @@
       <c r="C70" s="273"/>
       <c r="D70" s="108"/>
       <c r="F70"/>
-      <c r="J70" s="275"/>
-      <c r="M70"/>
-    </row>
-    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I70" s="364"/>
+      <c r="J70" s="365"/>
+      <c r="K70" s="366"/>
+      <c r="L70" s="367"/>
+      <c r="M70" s="368"/>
+      <c r="N70" s="369"/>
+    </row>
+    <row r="71" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B71" s="272"/>
       <c r="C71" s="273"/>
       <c r="D71" s="108"/>
       <c r="F71"/>
       <c r="H71" s="233"/>
-      <c r="I71" s="276"/>
-      <c r="J71" s="277"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="278"/>
-      <c r="M71"/>
+      <c r="I71" s="370"/>
+      <c r="J71" s="371" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" s="189"/>
+      <c r="L71" s="302"/>
+      <c r="M71" s="299"/>
+      <c r="N71" s="372"/>
     </row>
     <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="275"/>
-      <c r="E72" s="279"/>
+      <c r="D72" s="217">
+        <v>8208</v>
+      </c>
+      <c r="E72" s="276"/>
       <c r="F72"/>
       <c r="H72" s="233"/>
-      <c r="I72" s="280"/>
-      <c r="J72" s="281"/>
-      <c r="K72" s="282"/>
-      <c r="L72" s="282"/>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="I72" s="373"/>
+      <c r="J72" s="278"/>
+      <c r="K72" s="279"/>
+      <c r="L72" s="279"/>
+      <c r="M72" s="299"/>
+      <c r="N72" s="374"/>
     </row>
     <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="275"/>
-      <c r="E73" s="279"/>
+      <c r="D73" s="101">
+        <v>14274</v>
+      </c>
+      <c r="E73" s="276"/>
       <c r="F73"/>
       <c r="H73" s="233"/>
-      <c r="I73" s="280"/>
-      <c r="J73" s="281"/>
-      <c r="K73" s="282"/>
-      <c r="L73" s="282"/>
-      <c r="M73"/>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I73" s="373"/>
+      <c r="J73" s="363" t="s">
+        <v>209</v>
+      </c>
+      <c r="K73" s="279"/>
+      <c r="L73" s="279"/>
+      <c r="M73" s="295">
+        <v>626653.55000000005</v>
+      </c>
+      <c r="N73" s="374"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C74" s="275"/>
-      <c r="D74" s="189"/>
-      <c r="E74" s="279"/>
+      <c r="D74" s="101">
+        <v>53412.4</v>
+      </c>
+      <c r="E74" s="276"/>
       <c r="F74"/>
       <c r="H74" s="233"/>
-      <c r="I74" s="280"/>
-      <c r="J74" s="281"/>
-      <c r="K74" s="282"/>
-      <c r="L74" s="282"/>
-      <c r="M74"/>
-      <c r="N74"/>
+      <c r="I74" s="373"/>
+      <c r="J74" s="363" t="s">
+        <v>208</v>
+      </c>
+      <c r="K74" s="279"/>
+      <c r="L74" s="279"/>
+      <c r="M74" s="295">
+        <v>-439311.46</v>
+      </c>
+      <c r="N74" s="374"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C75" s="275"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="279"/>
+      <c r="D75" s="101">
+        <v>53055.3</v>
+      </c>
+      <c r="E75" s="276"/>
       <c r="H75" s="233"/>
-      <c r="I75" s="233"/>
-      <c r="J75" s="233"/>
-      <c r="K75" s="233"/>
-      <c r="L75" s="278"/>
-      <c r="M75"/>
-      <c r="N75"/>
-    </row>
-    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I75" s="375"/>
+      <c r="J75" s="300"/>
+      <c r="K75" s="188"/>
+      <c r="L75" s="302"/>
+      <c r="M75" s="295">
+        <v>0</v>
+      </c>
+      <c r="N75" s="374"/>
+    </row>
+    <row r="76" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C76" s="275"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="279"/>
+      <c r="D76" s="101">
+        <v>46137.599999999999</v>
+      </c>
+      <c r="E76" s="276"/>
       <c r="H76" s="233"/>
-      <c r="I76" s="233"/>
-      <c r="J76" s="233"/>
-      <c r="K76" s="233"/>
-      <c r="L76" s="278"/>
-      <c r="M76"/>
-      <c r="N76"/>
+      <c r="I76" s="375"/>
+      <c r="J76" s="376" t="s">
+        <v>210</v>
+      </c>
+      <c r="K76" s="377"/>
+      <c r="L76" s="378"/>
+      <c r="M76" s="379">
+        <f>SUM(M73:M75)</f>
+        <v>187342.09000000003</v>
+      </c>
+      <c r="N76" s="374"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C77" s="275"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="279"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="M77"/>
-      <c r="N77"/>
+      <c r="D77" s="101">
+        <v>6800</v>
+      </c>
+      <c r="E77" s="276"/>
+      <c r="I77" s="380"/>
+      <c r="J77" s="299"/>
+      <c r="K77" s="299"/>
+      <c r="L77" s="298"/>
+      <c r="M77" s="295"/>
+      <c r="N77" s="374"/>
     </row>
     <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C78" s="275"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="279"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-    </row>
-    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D78" s="101">
+        <v>76020.600000000006</v>
+      </c>
+      <c r="E78" s="276"/>
+      <c r="I78" s="380"/>
+      <c r="J78" s="299"/>
+      <c r="K78" s="299"/>
+      <c r="L78" s="298"/>
+      <c r="M78" s="299"/>
+      <c r="N78" s="374"/>
+    </row>
+    <row r="79" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="275"/>
-      <c r="D79" s="108"/>
-      <c r="E79" s="279"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="M79"/>
-      <c r="N79"/>
+      <c r="D79" s="101">
+        <v>13312</v>
+      </c>
+      <c r="E79" s="276"/>
+      <c r="I79" s="381"/>
+      <c r="J79" s="382"/>
+      <c r="K79" s="382"/>
+      <c r="L79" s="383"/>
+      <c r="M79" s="382"/>
+      <c r="N79" s="384"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="275"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="279"/>
+      <c r="D80" s="101">
+        <v>55584.1</v>
+      </c>
+      <c r="E80" s="276"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
@@ -8649,8 +9117,8 @@
     </row>
     <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C81" s="271"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="279"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="276"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
@@ -8659,8 +9127,8 @@
     </row>
     <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C82" s="271"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="279"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="276"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
@@ -8669,8 +9137,8 @@
     </row>
     <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C83" s="271"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="279"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="276"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
@@ -8679,8 +9147,8 @@
     </row>
     <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="271"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="279"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="276"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
@@ -8689,8 +9157,8 @@
     </row>
     <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C85" s="271"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="279"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="276"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
@@ -8699,8 +9167,10 @@
     </row>
     <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C86" s="271"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="279"/>
+      <c r="D86" s="108">
+        <v>0</v>
+      </c>
+      <c r="E86" s="276"/>
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
@@ -8709,8 +9179,11 @@
     </row>
     <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C87" s="271"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="279"/>
+      <c r="D87" s="108">
+        <f>SUM(D72:D86)</f>
+        <v>326804</v>
+      </c>
+      <c r="E87" s="276"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
@@ -8720,7 +9193,7 @@
     <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C88" s="271"/>
       <c r="D88" s="108"/>
-      <c r="E88" s="279"/>
+      <c r="E88" s="276"/>
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
@@ -8730,7 +9203,7 @@
     <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C89" s="271"/>
       <c r="D89" s="108"/>
-      <c r="E89" s="279"/>
+      <c r="E89" s="276"/>
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
@@ -8740,7 +9213,7 @@
     <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="271"/>
       <c r="D90" s="108"/>
-      <c r="E90" s="279"/>
+      <c r="E90" s="276"/>
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
@@ -8750,7 +9223,7 @@
     <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C91" s="271"/>
       <c r="D91" s="108"/>
-      <c r="E91" s="279"/>
+      <c r="E91" s="276"/>
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
@@ -8760,7 +9233,7 @@
     <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C92" s="271"/>
       <c r="D92" s="108"/>
-      <c r="E92" s="279"/>
+      <c r="E92" s="276"/>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
@@ -8770,7 +9243,7 @@
     <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C93" s="271"/>
       <c r="D93" s="108"/>
-      <c r="E93" s="279"/>
+      <c r="E93" s="276"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
@@ -8780,7 +9253,7 @@
     <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C94" s="271"/>
       <c r="D94" s="108"/>
-      <c r="E94" s="279"/>
+      <c r="E94" s="276"/>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
@@ -8790,7 +9263,7 @@
     <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C95" s="271"/>
       <c r="D95" s="108"/>
-      <c r="E95" s="279"/>
+      <c r="E95" s="276"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -8800,7 +9273,7 @@
     <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C96" s="271"/>
       <c r="D96" s="108"/>
-      <c r="E96" s="279"/>
+      <c r="E96" s="276"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
@@ -8810,7 +9283,7 @@
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C97" s="271"/>
       <c r="D97" s="189"/>
-      <c r="E97" s="279"/>
+      <c r="E97" s="276"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
@@ -8820,7 +9293,7 @@
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C98" s="271"/>
       <c r="D98" s="189"/>
-      <c r="E98" s="279"/>
+      <c r="E98" s="276"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
@@ -8830,7 +9303,7 @@
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99" s="271"/>
       <c r="D99" s="189"/>
-      <c r="E99" s="279"/>
+      <c r="E99" s="276"/>
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
@@ -8840,7 +9313,7 @@
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100" s="271"/>
       <c r="D100" s="189"/>
-      <c r="E100" s="279"/>
+      <c r="E100" s="276"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
@@ -8850,7 +9323,7 @@
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C101" s="271"/>
       <c r="D101" s="189"/>
-      <c r="E101" s="279"/>
+      <c r="E101" s="276"/>
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
@@ -8859,7 +9332,7 @@
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C102" s="271"/>
-      <c r="E102" s="279"/>
+      <c r="E102" s="276"/>
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
@@ -8868,7 +9341,7 @@
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C103" s="271"/>
-      <c r="E103" s="279"/>
+      <c r="E103" s="276"/>
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
@@ -8877,7 +9350,7 @@
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C104" s="271"/>
-      <c r="E104" s="279"/>
+      <c r="E104" s="276"/>
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
@@ -8886,7 +9359,7 @@
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C105" s="271"/>
-      <c r="E105" s="279"/>
+      <c r="E105" s="276"/>
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
@@ -8895,7 +9368,7 @@
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C106" s="271"/>
-      <c r="E106" s="279"/>
+      <c r="E106" s="276"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
@@ -8904,7 +9377,7 @@
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C107" s="271"/>
-      <c r="E107" s="279"/>
+      <c r="E107" s="276"/>
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
@@ -8913,7 +9386,7 @@
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C108" s="271"/>
-      <c r="E108" s="279"/>
+      <c r="E108" s="276"/>
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
@@ -8922,7 +9395,7 @@
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C109" s="271"/>
-      <c r="E109" s="279"/>
+      <c r="E109" s="276"/>
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
@@ -8931,7 +9404,7 @@
     </row>
     <row r="110" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C110" s="271"/>
-      <c r="E110" s="279"/>
+      <c r="E110" s="276"/>
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
@@ -8940,7 +9413,7 @@
     </row>
     <row r="111" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C111" s="271"/>
-      <c r="E111" s="279"/>
+      <c r="E111" s="276"/>
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
@@ -8949,7 +9422,7 @@
     </row>
     <row r="112" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C112" s="271"/>
-      <c r="E112" s="279"/>
+      <c r="E112" s="276"/>
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
@@ -8958,7 +9431,7 @@
     </row>
     <row r="113" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C113" s="271"/>
-      <c r="E113" s="279"/>
+      <c r="E113" s="276"/>
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
@@ -8967,7 +9440,7 @@
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C114" s="271"/>
-      <c r="E114" s="279"/>
+      <c r="E114" s="276"/>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
@@ -8976,7 +9449,7 @@
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C115" s="271"/>
-      <c r="E115" s="279"/>
+      <c r="E115" s="276"/>
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
@@ -8985,7 +9458,7 @@
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C116" s="271"/>
-      <c r="E116" s="279"/>
+      <c r="E116" s="276"/>
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
@@ -8994,7 +9467,7 @@
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C117" s="271"/>
-      <c r="E117" s="279"/>
+      <c r="E117" s="276"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -9003,7 +9476,7 @@
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C118" s="271"/>
-      <c r="E118" s="279"/>
+      <c r="E118" s="276"/>
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
@@ -9012,7 +9485,7 @@
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C119" s="271"/>
-      <c r="E119" s="279"/>
+      <c r="E119" s="276"/>
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
@@ -9021,7 +9494,7 @@
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C120" s="271"/>
-      <c r="E120" s="279"/>
+      <c r="E120" s="276"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
@@ -9030,7 +9503,7 @@
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C121" s="271"/>
-      <c r="E121" s="279"/>
+      <c r="E121" s="276"/>
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
@@ -9039,7 +9512,7 @@
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C122" s="271"/>
-      <c r="E122" s="279"/>
+      <c r="E122" s="276"/>
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
@@ -9048,7 +9521,7 @@
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C123" s="271"/>
-      <c r="E123" s="279"/>
+      <c r="E123" s="276"/>
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
@@ -9056,6 +9529,9 @@
       <c r="N123"/>
     </row>
   </sheetData>
+  <sortState ref="I73:M74">
+    <sortCondition ref="I73:I74"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="I36:L37"/>
     <mergeCell ref="I40:J42"/>
@@ -9075,10 +9551,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9104,23 +9580,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="339"/>
-      <c r="C1" s="341" t="s">
+      <c r="B1" s="336"/>
+      <c r="C1" s="338" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
+      <c r="J1" s="339"/>
+      <c r="K1" s="339"/>
+      <c r="L1" s="339"/>
+      <c r="M1" s="339"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="340"/>
+      <c r="B2" s="337"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9130,24 +9606,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="343" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="344"/>
+      <c r="B3" s="340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="341"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="345" t="s">
+      <c r="H3" s="342" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="345"/>
+      <c r="I3" s="342"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="337" t="s">
+      <c r="P3" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="310" t="s">
+      <c r="R3" s="307" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9162,14 +9638,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="H4" s="314" t="s">
+      <c r="F4" s="310"/>
+      <c r="H4" s="311" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="315"/>
+      <c r="I4" s="312"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9179,11 +9655,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="338"/>
+      <c r="P4" s="335"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="311"/>
+      <c r="R4" s="308"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9319,7 +9795,7 @@
       <c r="Q7" s="45">
         <v>0</v>
       </c>
-      <c r="R7" s="285">
+      <c r="R7" s="282">
         <v>13174</v>
       </c>
     </row>
@@ -9363,7 +9839,7 @@
       <c r="Q8" s="45">
         <v>0</v>
       </c>
-      <c r="R8" s="285">
+      <c r="R8" s="282">
         <v>3393</v>
       </c>
     </row>
@@ -9868,7 +10344,7 @@
         <v>2463</v>
       </c>
       <c r="J19" s="40"/>
-      <c r="K19" s="294"/>
+      <c r="K19" s="291"/>
       <c r="L19" s="59"/>
       <c r="M19" s="42">
         <f>27948+8729</f>
@@ -10008,7 +10484,7 @@
         <v>953</v>
       </c>
       <c r="J22" s="40"/>
-      <c r="K22" s="295"/>
+      <c r="K22" s="292"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
         <f>18454.5+25683.5</f>
@@ -10464,7 +10940,7 @@
       <c r="C32" s="33">
         <v>6257</v>
       </c>
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="305" t="s">
         <v>158</v>
       </c>
       <c r="E32" s="35">
@@ -10528,7 +11004,7 @@
       <c r="J33" s="74">
         <v>44984</v>
       </c>
-      <c r="K33" s="309" t="s">
+      <c r="K33" s="306" t="s">
         <v>160</v>
       </c>
       <c r="L33" s="84">
@@ -10640,7 +11116,7 @@
         <f t="shared" si="2"/>
         <v>128582.5</v>
       </c>
-      <c r="Q35" s="288">
+      <c r="Q35" s="285">
         <f t="shared" si="0"/>
         <v>-1000.5</v>
       </c>
@@ -10686,7 +11162,7 @@
         <f t="shared" si="2"/>
         <v>22711</v>
       </c>
-      <c r="Q36" s="288">
+      <c r="Q36" s="285">
         <f t="shared" si="0"/>
         <v>-73292</v>
       </c>
@@ -10731,7 +11207,7 @@
         <f t="shared" si="2"/>
         <v>15423</v>
       </c>
-      <c r="Q37" s="288">
+      <c r="Q37" s="285">
         <f t="shared" si="0"/>
         <v>-77333</v>
       </c>
@@ -11111,11 +11587,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="321">
+      <c r="M49" s="318">
         <f>SUM(M5:M40)</f>
         <v>1813712.8699999999</v>
       </c>
-      <c r="N49" s="321">
+      <c r="N49" s="318">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -11123,7 +11599,7 @@
         <f>SUM(P5:P40)</f>
         <v>3805932.8699999996</v>
       </c>
-      <c r="Q49" s="333">
+      <c r="Q49" s="330">
         <f>SUM(Q5:Q40)</f>
         <v>-151621.13</v>
       </c>
@@ -11144,10 +11620,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="322"/>
-      <c r="N50" s="322"/>
+      <c r="M50" s="319"/>
+      <c r="N50" s="319"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="334"/>
+      <c r="Q50" s="331"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -11202,11 +11678,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="335">
+      <c r="M53" s="332">
         <f>M49+N49</f>
         <v>3128649.87</v>
       </c>
-      <c r="N53" s="336"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11631,26 +12107,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="329" t="s">
+      <c r="H77" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="330"/>
+      <c r="I77" s="327"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="331">
+      <c r="K77" s="328">
         <f>I75+L75</f>
         <v>253818.65</v>
       </c>
-      <c r="L77" s="332"/>
+      <c r="L77" s="329"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="323" t="s">
+      <c r="D78" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="323"/>
+      <c r="E78" s="320"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>3123814.85</v>
@@ -11659,22 +12135,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="324" t="s">
+      <c r="D79" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="324"/>
+      <c r="E79" s="321"/>
       <c r="F79" s="101">
-        <v>0</v>
-      </c>
-      <c r="I79" s="325" t="s">
+        <v>-1830849.67</v>
+      </c>
+      <c r="I79" s="322" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="326"/>
-      <c r="K79" s="327">
+      <c r="J79" s="323"/>
+      <c r="K79" s="324">
         <f>F81+F82+F83</f>
-        <v>3123814.85</v>
-      </c>
-      <c r="L79" s="327"/>
+        <v>1521502.1800000002</v>
+      </c>
+      <c r="L79" s="324"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11708,18 +12184,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>3123814.85</v>
+        <v>1292965.1800000002</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="328">
+      <c r="K81" s="325">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="327"/>
+      <c r="L81" s="324"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11729,27 +12205,29 @@
         <v>23</v>
       </c>
       <c r="F82" s="101">
-        <v>0</v>
+        <v>228537</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="172"/>
-      <c r="D83" s="316" t="s">
+      <c r="C83" s="172">
+        <v>44988</v>
+      </c>
+      <c r="D83" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="317"/>
+      <c r="E83" s="314"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="318" t="s">
+      <c r="I83" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="319"/>
-      <c r="K83" s="320">
+      <c r="J83" s="316"/>
+      <c r="K83" s="317">
         <f>K79+K81</f>
-        <v>-380363.21999999974</v>
-      </c>
-      <c r="L83" s="320"/>
+        <v>-1982675.8899999997</v>
+      </c>
+      <c r="L83" s="317"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11930,15 +12408,15 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="258" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="283" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="280" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -12013,18 +12491,24 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
+      <c r="B3" s="215">
+        <v>44956</v>
+      </c>
+      <c r="C3" s="216" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="217">
+        <v>93517.24</v>
+      </c>
       <c r="E3" s="218"/>
       <c r="F3" s="217"/>
       <c r="G3" s="219">
         <f>D3-F3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="290"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="292"/>
+        <v>93517.24</v>
+      </c>
+      <c r="I3" s="287"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="289"/>
       <c r="L3" s="218"/>
       <c r="M3" s="220"/>
       <c r="N3" s="221">
@@ -12033,19 +12517,25 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="222"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="101"/>
+      <c r="B4" s="222">
+        <v>44957</v>
+      </c>
+      <c r="C4" s="223" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="101">
+        <v>13098.5</v>
+      </c>
       <c r="E4" s="224"/>
       <c r="F4" s="101"/>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
-        <v>0</v>
+        <v>13098.5</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="292"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="289"/>
       <c r="L4" s="218"/>
       <c r="M4" s="220"/>
       <c r="N4" s="227">
@@ -12054,18 +12544,24 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="222"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="222">
+        <v>44958</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="101">
+        <v>63500.3</v>
+      </c>
       <c r="E5" s="224"/>
       <c r="F5" s="101"/>
       <c r="G5" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="290"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="292"/>
+        <v>63500.3</v>
+      </c>
+      <c r="I5" s="287"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="289"/>
       <c r="L5" s="218"/>
       <c r="M5" s="220"/>
       <c r="N5" s="227">
@@ -12074,18 +12570,24 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="222"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="222">
+        <v>44959</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="101">
+        <v>97811.32</v>
+      </c>
       <c r="E6" s="224"/>
       <c r="F6" s="101"/>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="290"/>
-      <c r="J6" s="291"/>
-      <c r="K6" s="292"/>
+        <v>97811.32</v>
+      </c>
+      <c r="I6" s="287"/>
+      <c r="J6" s="288"/>
+      <c r="K6" s="289"/>
       <c r="L6" s="218"/>
       <c r="M6" s="220"/>
       <c r="N6" s="227">
@@ -12094,18 +12596,24 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="222"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="101"/>
+      <c r="B7" s="222">
+        <v>44960</v>
+      </c>
+      <c r="C7" s="223" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="101">
+        <v>23821.599999999999</v>
+      </c>
       <c r="E7" s="224"/>
       <c r="F7" s="101"/>
       <c r="G7" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="290"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="292"/>
+        <v>23821.599999999999</v>
+      </c>
+      <c r="I7" s="287"/>
+      <c r="J7" s="288"/>
+      <c r="K7" s="289"/>
       <c r="L7" s="218"/>
       <c r="M7" s="220"/>
       <c r="N7" s="227">
@@ -12114,18 +12622,24 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="222"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="101"/>
+      <c r="B8" s="222">
+        <v>44960</v>
+      </c>
+      <c r="C8" s="223" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="101">
+        <v>28550.54</v>
+      </c>
       <c r="E8" s="224"/>
       <c r="F8" s="101"/>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="290"/>
-      <c r="J8" s="291"/>
-      <c r="K8" s="292"/>
+        <v>28550.54</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="289"/>
       <c r="L8" s="218"/>
       <c r="M8" s="220"/>
       <c r="N8" s="227">
@@ -12134,17 +12648,23 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="222"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="101"/>
+      <c r="B9" s="222">
+        <v>44961</v>
+      </c>
+      <c r="C9" s="223" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="101">
+        <v>54776.1</v>
+      </c>
       <c r="E9" s="224"/>
       <c r="F9" s="101"/>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54776.1</v>
       </c>
       <c r="I9" s="228"/>
-      <c r="J9" s="289"/>
+      <c r="J9" s="286"/>
       <c r="K9" s="230"/>
       <c r="L9" s="218"/>
       <c r="M9" s="220"/>
@@ -12154,19 +12674,25 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="101"/>
+      <c r="B10" s="222">
+        <v>44963</v>
+      </c>
+      <c r="C10" s="223" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="101">
+        <v>6216</v>
+      </c>
       <c r="E10" s="224"/>
       <c r="F10" s="101"/>
       <c r="G10" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6216</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="290"/>
-      <c r="J10" s="291"/>
-      <c r="K10" s="292"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="289"/>
       <c r="L10" s="218"/>
       <c r="M10" s="220"/>
       <c r="N10" s="227">
@@ -12175,17 +12701,23 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="222"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="101"/>
+      <c r="B11" s="222">
+        <v>44963</v>
+      </c>
+      <c r="C11" s="223" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="101">
+        <v>89707.48</v>
+      </c>
       <c r="E11" s="224"/>
       <c r="F11" s="101"/>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89707.48</v>
       </c>
       <c r="I11" s="228"/>
-      <c r="J11" s="289"/>
+      <c r="J11" s="286"/>
       <c r="K11" s="230"/>
       <c r="L11" s="218"/>
       <c r="M11" s="220"/>
@@ -12195,17 +12727,23 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="222">
+        <v>44964</v>
+      </c>
+      <c r="C12" s="223" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="101">
+        <v>44780.82</v>
+      </c>
       <c r="E12" s="224"/>
       <c r="F12" s="101"/>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44780.82</v>
       </c>
       <c r="I12" s="228"/>
-      <c r="J12" s="289"/>
+      <c r="J12" s="286"/>
       <c r="K12" s="230"/>
       <c r="L12" s="218"/>
       <c r="M12" s="220"/>
@@ -12215,18 +12753,24 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="101"/>
+      <c r="B13" s="222">
+        <v>44965</v>
+      </c>
+      <c r="C13" s="223" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="101">
+        <v>21573</v>
+      </c>
       <c r="E13" s="224"/>
       <c r="F13" s="101"/>
       <c r="G13" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="290"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="292"/>
+        <v>21573</v>
+      </c>
+      <c r="I13" s="287"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="289"/>
       <c r="L13" s="218"/>
       <c r="M13" s="220"/>
       <c r="N13" s="227">
@@ -12235,18 +12779,24 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="222"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="101"/>
+      <c r="B14" s="222">
+        <v>44966</v>
+      </c>
+      <c r="C14" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="101">
+        <v>30244.83</v>
+      </c>
       <c r="E14" s="224"/>
       <c r="F14" s="101"/>
       <c r="G14" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="290"/>
-      <c r="J14" s="291"/>
-      <c r="K14" s="292"/>
+        <v>30244.83</v>
+      </c>
+      <c r="I14" s="287"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="289"/>
       <c r="L14" s="218"/>
       <c r="M14" s="220"/>
       <c r="N14" s="227">
@@ -12255,17 +12805,23 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="222"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="101"/>
+      <c r="B15" s="222">
+        <v>44967</v>
+      </c>
+      <c r="C15" s="223" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="101">
+        <v>10627.4</v>
+      </c>
       <c r="E15" s="224"/>
       <c r="F15" s="101"/>
       <c r="G15" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10627.4</v>
       </c>
       <c r="I15" s="228"/>
-      <c r="J15" s="289"/>
+      <c r="J15" s="286"/>
       <c r="K15" s="230"/>
       <c r="L15" s="218"/>
       <c r="M15" s="220"/>
@@ -12275,18 +12831,24 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="222"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="101"/>
+      <c r="B16" s="222">
+        <v>44968</v>
+      </c>
+      <c r="C16" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="101">
+        <v>106320.8</v>
+      </c>
       <c r="E16" s="224"/>
       <c r="F16" s="101"/>
       <c r="G16" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="290"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="292"/>
+        <v>106320.8</v>
+      </c>
+      <c r="I16" s="287"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="289"/>
       <c r="L16" s="218"/>
       <c r="M16" s="220"/>
       <c r="N16" s="227">
@@ -12295,17 +12857,23 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="222"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="101"/>
+      <c r="B17" s="222">
+        <v>44970</v>
+      </c>
+      <c r="C17" s="223" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="101">
+        <v>15558.9</v>
+      </c>
       <c r="E17" s="224"/>
       <c r="F17" s="101"/>
       <c r="G17" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15558.9</v>
       </c>
       <c r="I17" s="228"/>
-      <c r="J17" s="289"/>
+      <c r="J17" s="286"/>
       <c r="K17" s="230"/>
       <c r="L17" s="218"/>
       <c r="M17" s="220"/>
@@ -12315,17 +12883,23 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="222"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="101"/>
+      <c r="B18" s="222">
+        <v>44971</v>
+      </c>
+      <c r="C18" s="223" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="101">
+        <v>38966</v>
+      </c>
       <c r="E18" s="224"/>
       <c r="F18" s="101"/>
       <c r="G18" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38966</v>
       </c>
       <c r="I18" s="228"/>
-      <c r="J18" s="289"/>
+      <c r="J18" s="286"/>
       <c r="K18" s="230"/>
       <c r="L18" s="218"/>
       <c r="M18" s="220"/>
@@ -12335,18 +12909,24 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="222"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="222">
+        <v>44972</v>
+      </c>
+      <c r="C19" s="223" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="101">
+        <v>22837.8</v>
+      </c>
       <c r="E19" s="224"/>
       <c r="F19" s="101"/>
       <c r="G19" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="290"/>
-      <c r="J19" s="291"/>
-      <c r="K19" s="292"/>
+        <v>22837.8</v>
+      </c>
+      <c r="I19" s="287"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="289"/>
       <c r="L19" s="218"/>
       <c r="M19" s="220"/>
       <c r="N19" s="227">
@@ -12355,17 +12935,23 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="222"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="101"/>
+      <c r="B20" s="222">
+        <v>44972</v>
+      </c>
+      <c r="C20" s="223" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="101">
+        <v>3940.89</v>
+      </c>
       <c r="E20" s="224"/>
       <c r="F20" s="101"/>
       <c r="G20" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3940.89</v>
       </c>
       <c r="I20" s="228"/>
-      <c r="J20" s="289"/>
+      <c r="J20" s="286"/>
       <c r="K20" s="230"/>
       <c r="L20" s="218"/>
       <c r="M20" s="231"/>
@@ -12375,18 +12961,24 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="222">
+        <v>44973</v>
+      </c>
+      <c r="C21" s="223" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="101">
+        <v>91161.2</v>
+      </c>
       <c r="E21" s="224"/>
       <c r="F21" s="101"/>
       <c r="G21" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="290"/>
-      <c r="J21" s="291"/>
-      <c r="K21" s="292"/>
+        <v>91161.2</v>
+      </c>
+      <c r="I21" s="287"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="289"/>
       <c r="L21" s="218"/>
       <c r="M21" s="231"/>
       <c r="N21" s="227">
@@ -12395,18 +12987,24 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="222"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="101"/>
+      <c r="B22" s="222">
+        <v>44974</v>
+      </c>
+      <c r="C22" s="223" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="101">
+        <v>7864.6</v>
+      </c>
       <c r="E22" s="224"/>
       <c r="F22" s="101"/>
       <c r="G22" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7864.6</v>
       </c>
       <c r="H22" s="232"/>
       <c r="I22" s="235"/>
-      <c r="J22" s="293"/>
+      <c r="J22" s="290"/>
       <c r="K22" s="237"/>
       <c r="L22" s="218"/>
       <c r="M22" s="231"/>
@@ -12416,18 +13014,24 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="222"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="101"/>
+      <c r="B23" s="222">
+        <v>44974</v>
+      </c>
+      <c r="C23" s="223" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="101">
+        <v>56418.54</v>
+      </c>
       <c r="E23" s="224"/>
       <c r="F23" s="101"/>
       <c r="G23" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56418.54</v>
       </c>
       <c r="H23" s="233"/>
       <c r="I23" s="235"/>
-      <c r="J23" s="293"/>
+      <c r="J23" s="290"/>
       <c r="K23" s="237"/>
       <c r="L23" s="224"/>
       <c r="M23" s="101"/>
@@ -12437,18 +13041,24 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="222"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="101"/>
+      <c r="B24" s="222">
+        <v>44975</v>
+      </c>
+      <c r="C24" s="223" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="101">
+        <v>255285.95</v>
+      </c>
       <c r="E24" s="224"/>
       <c r="F24" s="101"/>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>255285.95</v>
       </c>
       <c r="H24" s="233"/>
       <c r="I24" s="235"/>
-      <c r="J24" s="293"/>
+      <c r="J24" s="290"/>
       <c r="K24" s="237"/>
       <c r="L24" s="224"/>
       <c r="M24" s="101"/>
@@ -12458,18 +13068,24 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="222"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="222">
+        <v>44975</v>
+      </c>
+      <c r="C25" s="223" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="101">
+        <v>7950</v>
+      </c>
       <c r="E25" s="224"/>
       <c r="F25" s="101"/>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7950</v>
       </c>
       <c r="H25" s="234"/>
       <c r="I25" s="235"/>
-      <c r="J25" s="293"/>
+      <c r="J25" s="290"/>
       <c r="K25" s="237"/>
       <c r="L25" s="224"/>
       <c r="M25" s="101"/>
@@ -12479,18 +13095,24 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="222"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="101"/>
+      <c r="B26" s="222">
+        <v>44977</v>
+      </c>
+      <c r="C26" s="223" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="101">
+        <v>48571.5</v>
+      </c>
       <c r="E26" s="224"/>
       <c r="F26" s="101"/>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48571.5</v>
       </c>
       <c r="H26" s="234"/>
       <c r="I26" s="235"/>
-      <c r="J26" s="293"/>
+      <c r="J26" s="290"/>
       <c r="K26" s="237"/>
       <c r="L26" s="224"/>
       <c r="M26" s="101"/>
@@ -12500,18 +13122,24 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="222"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="101"/>
+      <c r="B27" s="222">
+        <v>44978</v>
+      </c>
+      <c r="C27" s="223" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="101">
+        <v>22975.1</v>
+      </c>
       <c r="E27" s="224"/>
       <c r="F27" s="101"/>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22975.1</v>
       </c>
       <c r="H27" s="234"/>
       <c r="I27" s="235"/>
-      <c r="J27" s="293"/>
+      <c r="J27" s="290"/>
       <c r="K27" s="237"/>
       <c r="L27" s="224"/>
       <c r="M27" s="101"/>
@@ -12521,18 +13149,24 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="222"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="101"/>
+      <c r="B28" s="222">
+        <v>44978</v>
+      </c>
+      <c r="C28" s="223" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="101">
+        <v>6000</v>
+      </c>
       <c r="E28" s="224"/>
       <c r="F28" s="101"/>
       <c r="G28" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="280"/>
-      <c r="J28" s="284"/>
+      <c r="I28" s="277"/>
+      <c r="J28" s="281"/>
       <c r="K28" s="237"/>
       <c r="L28" s="224"/>
       <c r="M28" s="101"/>
@@ -12542,18 +13176,24 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="222"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="101"/>
+      <c r="B29" s="222">
+        <v>44979</v>
+      </c>
+      <c r="C29" s="223" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="101">
+        <v>5547</v>
+      </c>
       <c r="E29" s="224"/>
       <c r="F29" s="101"/>
       <c r="G29" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5547</v>
       </c>
       <c r="H29" s="234"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="284"/>
+      <c r="I29" s="277"/>
+      <c r="J29" s="281"/>
       <c r="K29" s="237"/>
       <c r="L29" s="224"/>
       <c r="M29" s="101"/>
@@ -12564,18 +13204,24 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="101"/>
+      <c r="B30" s="222">
+        <v>44980</v>
+      </c>
+      <c r="C30" s="223" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="101">
+        <v>89040.4</v>
+      </c>
       <c r="E30" s="224"/>
       <c r="F30" s="101"/>
       <c r="G30" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89040.4</v>
       </c>
       <c r="H30" s="234"/>
-      <c r="I30" s="280"/>
-      <c r="J30" s="284"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="281"/>
       <c r="K30" s="237"/>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
@@ -12585,14 +13231,20 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="222"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="101"/>
+      <c r="B31" s="222">
+        <v>44981</v>
+      </c>
+      <c r="C31" s="223" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="101">
+        <v>119560.24</v>
+      </c>
       <c r="E31" s="224"/>
       <c r="F31" s="101"/>
       <c r="G31" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119560.24</v>
       </c>
       <c r="H31" s="233"/>
       <c r="I31"/>
@@ -12608,14 +13260,20 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="222"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="101"/>
+      <c r="B32" s="222">
+        <v>44982</v>
+      </c>
+      <c r="C32" s="223" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="101">
+        <v>84723.4</v>
+      </c>
       <c r="E32" s="224"/>
       <c r="F32" s="101"/>
       <c r="G32" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84723.4</v>
       </c>
       <c r="H32" s="233"/>
       <c r="I32"/>
@@ -12631,14 +13289,20 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="222"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="101"/>
+      <c r="B33" s="222">
+        <v>44984</v>
+      </c>
+      <c r="C33" s="223" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="101">
+        <v>50119.18</v>
+      </c>
       <c r="E33" s="224"/>
       <c r="F33" s="101"/>
       <c r="G33" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50119.18</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -12653,14 +13317,20 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="222"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="101"/>
+      <c r="B34" s="222">
+        <v>44985</v>
+      </c>
+      <c r="C34" s="223" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="101">
+        <v>13491.2</v>
+      </c>
       <c r="E34" s="224"/>
       <c r="F34" s="101"/>
       <c r="G34" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13491.2</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -12673,14 +13343,20 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="222"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="222">
+        <v>44987</v>
+      </c>
+      <c r="C35" s="223" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="101">
+        <v>137215.21</v>
+      </c>
       <c r="E35" s="224"/>
       <c r="F35" s="101"/>
       <c r="G35" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>137215.21</v>
       </c>
       <c r="I35" s="235"/>
       <c r="J35" s="236"/>
@@ -12693,19 +13369,25 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="222"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="101"/>
+      <c r="B36" s="222">
+        <v>44987</v>
+      </c>
+      <c r="C36" s="223" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="101">
+        <v>11208</v>
+      </c>
       <c r="E36" s="224"/>
       <c r="F36" s="101"/>
       <c r="G36" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="346"/>
-      <c r="J36" s="347"/>
-      <c r="K36" s="347"/>
-      <c r="L36" s="348"/>
+        <v>11208</v>
+      </c>
+      <c r="I36" s="343"/>
+      <c r="J36" s="344"/>
+      <c r="K36" s="344"/>
+      <c r="L36" s="345"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -12713,19 +13395,25 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="222"/>
-      <c r="C37" s="223"/>
-      <c r="D37" s="101"/>
+      <c r="B37" s="222">
+        <v>44987</v>
+      </c>
+      <c r="C37" s="223" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="101">
+        <v>4184.6000000000004</v>
+      </c>
       <c r="E37" s="224"/>
       <c r="F37" s="101"/>
       <c r="G37" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="346"/>
-      <c r="J37" s="347"/>
-      <c r="K37" s="347"/>
-      <c r="L37" s="348"/>
+        <v>4184.6000000000004</v>
+      </c>
+      <c r="I37" s="343"/>
+      <c r="J37" s="344"/>
+      <c r="K37" s="344"/>
+      <c r="L37" s="345"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -12733,14 +13421,20 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="222"/>
-      <c r="C38" s="223"/>
-      <c r="D38" s="101"/>
+      <c r="B38" s="222">
+        <v>44988</v>
+      </c>
+      <c r="C38" s="223" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="101">
+        <v>53684.03</v>
+      </c>
       <c r="E38" s="224"/>
       <c r="F38" s="101"/>
       <c r="G38" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53684.03</v>
       </c>
       <c r="I38" s="228"/>
       <c r="J38" s="229"/>
@@ -12782,10 +13476,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="349" t="s">
+      <c r="I40" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="350"/>
+      <c r="J40" s="347"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -12804,8 +13498,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="351"/>
-      <c r="J41" s="352"/>
+      <c r="I41" s="348"/>
+      <c r="J41" s="349"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -12824,8 +13518,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="353"/>
-      <c r="J42" s="354"/>
+      <c r="I42" s="350"/>
+      <c r="J42" s="351"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -13318,7 +14012,7 @@
       <c r="C67" s="259"/>
       <c r="D67" s="260">
         <f>SUM(D3:D66)</f>
-        <v>0</v>
+        <v>1830849.67</v>
       </c>
       <c r="E67" s="261"/>
       <c r="F67" s="262">
@@ -13327,12 +14021,12 @@
       </c>
       <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="355" t="s">
+        <v>1830849.67</v>
+      </c>
+      <c r="I67" s="352" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="356"/>
+      <c r="J67" s="353"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -13352,11 +14046,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="359" t="s">
+      <c r="G68" s="356" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="361"/>
-      <c r="J68" s="362"/>
+      <c r="I68" s="358"/>
+      <c r="J68" s="359"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -13367,11 +14061,11 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="360"/>
-      <c r="I69" s="296"/>
-      <c r="J69" s="297"/>
-      <c r="K69" s="298"/>
-      <c r="L69" s="299"/>
+      <c r="G69" s="357"/>
+      <c r="I69" s="293"/>
+      <c r="J69" s="294"/>
+      <c r="K69" s="295"/>
+      <c r="L69" s="296"/>
       <c r="M69" s="187"/>
       <c r="N69" s="1"/>
     </row>
@@ -13380,11 +14074,11 @@
       <c r="C70" s="273"/>
       <c r="D70" s="108"/>
       <c r="F70"/>
-      <c r="I70" s="296"/>
-      <c r="J70" s="300"/>
+      <c r="I70" s="293"/>
+      <c r="J70" s="297"/>
       <c r="K70" s="186"/>
-      <c r="L70" s="301"/>
-      <c r="M70" s="302"/>
+      <c r="L70" s="298"/>
+      <c r="M70" s="299"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="272"/>
@@ -13392,110 +14086,110 @@
       <c r="D71" s="108"/>
       <c r="F71"/>
       <c r="H71" s="233"/>
-      <c r="I71" s="303"/>
-      <c r="J71" s="304"/>
+      <c r="I71" s="300"/>
+      <c r="J71" s="301"/>
       <c r="K71" s="189"/>
-      <c r="L71" s="305"/>
-      <c r="M71" s="302"/>
+      <c r="L71" s="302"/>
+      <c r="M71" s="299"/>
     </row>
     <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="275"/>
-      <c r="E72" s="279"/>
+      <c r="E72" s="276"/>
       <c r="F72"/>
       <c r="H72" s="233"/>
-      <c r="I72" s="306"/>
+      <c r="I72" s="303"/>
       <c r="J72" s="191"/>
-      <c r="K72" s="307"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="302"/>
+      <c r="K72" s="304"/>
+      <c r="L72" s="304"/>
+      <c r="M72" s="299"/>
       <c r="N72"/>
     </row>
     <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="275"/>
-      <c r="E73" s="279"/>
+      <c r="E73" s="276"/>
       <c r="F73"/>
       <c r="H73" s="233"/>
-      <c r="I73" s="306"/>
+      <c r="I73" s="303"/>
       <c r="J73" s="191"/>
-      <c r="K73" s="307"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="302"/>
+      <c r="K73" s="304"/>
+      <c r="L73" s="304"/>
+      <c r="M73" s="299"/>
       <c r="N73"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C74" s="275"/>
       <c r="D74" s="189"/>
-      <c r="E74" s="279"/>
+      <c r="E74" s="276"/>
       <c r="F74"/>
       <c r="H74" s="233"/>
-      <c r="I74" s="306"/>
+      <c r="I74" s="303"/>
       <c r="J74" s="191"/>
-      <c r="K74" s="307"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="302"/>
+      <c r="K74" s="304"/>
+      <c r="L74" s="304"/>
+      <c r="M74" s="299"/>
       <c r="N74"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C75" s="275"/>
       <c r="D75" s="108"/>
-      <c r="E75" s="279"/>
+      <c r="E75" s="276"/>
       <c r="H75" s="233"/>
       <c r="I75" s="188"/>
       <c r="J75" s="188"/>
       <c r="K75" s="188"/>
-      <c r="L75" s="305"/>
-      <c r="M75" s="302"/>
+      <c r="L75" s="302"/>
+      <c r="M75" s="299"/>
       <c r="N75"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C76" s="275"/>
       <c r="D76" s="108"/>
-      <c r="E76" s="279"/>
+      <c r="E76" s="276"/>
       <c r="H76" s="233"/>
       <c r="I76" s="188"/>
       <c r="J76" s="188"/>
       <c r="K76" s="188"/>
-      <c r="L76" s="305"/>
-      <c r="M76" s="302"/>
+      <c r="L76" s="302"/>
+      <c r="M76" s="299"/>
       <c r="N76"/>
     </row>
     <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C77" s="275"/>
       <c r="D77" s="108"/>
-      <c r="E77" s="279"/>
-      <c r="I77" s="302"/>
-      <c r="J77" s="302"/>
-      <c r="K77" s="302"/>
-      <c r="L77" s="301"/>
-      <c r="M77" s="302"/>
+      <c r="E77" s="276"/>
+      <c r="I77" s="299"/>
+      <c r="J77" s="299"/>
+      <c r="K77" s="299"/>
+      <c r="L77" s="298"/>
+      <c r="M77" s="299"/>
       <c r="N77"/>
     </row>
     <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C78" s="275"/>
       <c r="D78" s="108"/>
-      <c r="E78" s="279"/>
-      <c r="I78" s="302"/>
-      <c r="J78" s="302"/>
-      <c r="K78" s="302"/>
-      <c r="L78" s="301"/>
-      <c r="M78" s="302"/>
+      <c r="E78" s="276"/>
+      <c r="I78" s="299"/>
+      <c r="J78" s="299"/>
+      <c r="K78" s="299"/>
+      <c r="L78" s="298"/>
+      <c r="M78" s="299"/>
       <c r="N78"/>
     </row>
     <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C79" s="275"/>
       <c r="D79" s="108"/>
-      <c r="E79" s="279"/>
-      <c r="I79" s="302"/>
-      <c r="J79" s="302"/>
-      <c r="K79" s="302"/>
-      <c r="L79" s="301"/>
-      <c r="M79" s="302"/>
+      <c r="E79" s="276"/>
+      <c r="I79" s="299"/>
+      <c r="J79" s="299"/>
+      <c r="K79" s="299"/>
+      <c r="L79" s="298"/>
+      <c r="M79" s="299"/>
       <c r="N79"/>
     </row>
     <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="275"/>
       <c r="D80" s="108"/>
-      <c r="E80" s="279"/>
+      <c r="E80" s="276"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
@@ -13505,7 +14199,7 @@
     <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C81" s="271"/>
       <c r="D81" s="108"/>
-      <c r="E81" s="279"/>
+      <c r="E81" s="276"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
@@ -13515,7 +14209,7 @@
     <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C82" s="271"/>
       <c r="D82" s="108"/>
-      <c r="E82" s="279"/>
+      <c r="E82" s="276"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
@@ -13525,7 +14219,7 @@
     <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C83" s="271"/>
       <c r="D83" s="108"/>
-      <c r="E83" s="279"/>
+      <c r="E83" s="276"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
@@ -13535,7 +14229,7 @@
     <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="271"/>
       <c r="D84" s="108"/>
-      <c r="E84" s="279"/>
+      <c r="E84" s="276"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
@@ -13545,7 +14239,7 @@
     <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C85" s="271"/>
       <c r="D85" s="108"/>
-      <c r="E85" s="279"/>
+      <c r="E85" s="276"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
@@ -13555,7 +14249,7 @@
     <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C86" s="271"/>
       <c r="D86" s="108"/>
-      <c r="E86" s="279"/>
+      <c r="E86" s="276"/>
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
@@ -13565,7 +14259,7 @@
     <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C87" s="271"/>
       <c r="D87" s="108"/>
-      <c r="E87" s="279"/>
+      <c r="E87" s="276"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
@@ -13575,7 +14269,7 @@
     <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C88" s="271"/>
       <c r="D88" s="108"/>
-      <c r="E88" s="279"/>
+      <c r="E88" s="276"/>
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
@@ -13585,7 +14279,7 @@
     <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C89" s="271"/>
       <c r="D89" s="108"/>
-      <c r="E89" s="279"/>
+      <c r="E89" s="276"/>
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
@@ -13595,7 +14289,7 @@
     <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="271"/>
       <c r="D90" s="108"/>
-      <c r="E90" s="279"/>
+      <c r="E90" s="276"/>
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
@@ -13605,7 +14299,7 @@
     <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C91" s="271"/>
       <c r="D91" s="108"/>
-      <c r="E91" s="279"/>
+      <c r="E91" s="276"/>
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
@@ -13615,7 +14309,7 @@
     <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C92" s="271"/>
       <c r="D92" s="108"/>
-      <c r="E92" s="279"/>
+      <c r="E92" s="276"/>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
@@ -13625,7 +14319,7 @@
     <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C93" s="271"/>
       <c r="D93" s="108"/>
-      <c r="E93" s="279"/>
+      <c r="E93" s="276"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
@@ -13635,7 +14329,7 @@
     <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C94" s="271"/>
       <c r="D94" s="108"/>
-      <c r="E94" s="279"/>
+      <c r="E94" s="276"/>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
@@ -13645,7 +14339,7 @@
     <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C95" s="271"/>
       <c r="D95" s="108"/>
-      <c r="E95" s="279"/>
+      <c r="E95" s="276"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
@@ -13655,7 +14349,7 @@
     <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C96" s="271"/>
       <c r="D96" s="108"/>
-      <c r="E96" s="279"/>
+      <c r="E96" s="276"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
@@ -13665,7 +14359,7 @@
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C97" s="271"/>
       <c r="D97" s="189"/>
-      <c r="E97" s="279"/>
+      <c r="E97" s="276"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
@@ -13675,7 +14369,7 @@
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C98" s="271"/>
       <c r="D98" s="189"/>
-      <c r="E98" s="279"/>
+      <c r="E98" s="276"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
@@ -13685,7 +14379,7 @@
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99" s="271"/>
       <c r="D99" s="189"/>
-      <c r="E99" s="279"/>
+      <c r="E99" s="276"/>
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
@@ -13695,7 +14389,7 @@
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100" s="271"/>
       <c r="D100" s="189"/>
-      <c r="E100" s="279"/>
+      <c r="E100" s="276"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
@@ -13705,7 +14399,7 @@
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C101" s="271"/>
       <c r="D101" s="189"/>
-      <c r="E101" s="279"/>
+      <c r="E101" s="276"/>
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
@@ -13714,7 +14408,7 @@
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C102" s="271"/>
-      <c r="E102" s="279"/>
+      <c r="E102" s="276"/>
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
@@ -13723,7 +14417,7 @@
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C103" s="271"/>
-      <c r="E103" s="279"/>
+      <c r="E103" s="276"/>
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
@@ -13732,7 +14426,7 @@
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C104" s="271"/>
-      <c r="E104" s="279"/>
+      <c r="E104" s="276"/>
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
@@ -13741,7 +14435,7 @@
     </row>
     <row r="105" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C105" s="271"/>
-      <c r="E105" s="279"/>
+      <c r="E105" s="276"/>
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
@@ -13750,7 +14444,7 @@
     </row>
     <row r="106" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C106" s="271"/>
-      <c r="E106" s="279"/>
+      <c r="E106" s="276"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
@@ -13759,7 +14453,7 @@
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C107" s="271"/>
-      <c r="E107" s="279"/>
+      <c r="E107" s="276"/>
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
@@ -13768,7 +14462,7 @@
     </row>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C108" s="271"/>
-      <c r="E108" s="279"/>
+      <c r="E108" s="276"/>
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
@@ -13777,7 +14471,7 @@
     </row>
     <row r="109" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C109" s="271"/>
-      <c r="E109" s="279"/>
+      <c r="E109" s="276"/>
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
@@ -13786,7 +14480,7 @@
     </row>
     <row r="110" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C110" s="271"/>
-      <c r="E110" s="279"/>
+      <c r="E110" s="276"/>
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
@@ -13795,7 +14489,7 @@
     </row>
     <row r="111" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C111" s="271"/>
-      <c r="E111" s="279"/>
+      <c r="E111" s="276"/>
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
@@ -13804,7 +14498,7 @@
     </row>
     <row r="112" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C112" s="271"/>
-      <c r="E112" s="279"/>
+      <c r="E112" s="276"/>
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
@@ -13813,7 +14507,7 @@
     </row>
     <row r="113" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C113" s="271"/>
-      <c r="E113" s="279"/>
+      <c r="E113" s="276"/>
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
@@ -13822,7 +14516,7 @@
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C114" s="271"/>
-      <c r="E114" s="279"/>
+      <c r="E114" s="276"/>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
@@ -13831,7 +14525,7 @@
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C115" s="271"/>
-      <c r="E115" s="279"/>
+      <c r="E115" s="276"/>
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
@@ -13840,7 +14534,7 @@
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C116" s="271"/>
-      <c r="E116" s="279"/>
+      <c r="E116" s="276"/>
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
@@ -13849,7 +14543,7 @@
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C117" s="271"/>
-      <c r="E117" s="279"/>
+      <c r="E117" s="276"/>
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
@@ -13858,7 +14552,7 @@
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C118" s="271"/>
-      <c r="E118" s="279"/>
+      <c r="E118" s="276"/>
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
@@ -13867,7 +14561,7 @@
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C119" s="271"/>
-      <c r="E119" s="279"/>
+      <c r="E119" s="276"/>
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
@@ -13876,7 +14570,7 @@
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C120" s="271"/>
-      <c r="E120" s="279"/>
+      <c r="E120" s="276"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
@@ -13885,7 +14579,7 @@
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C121" s="271"/>
-      <c r="E121" s="279"/>
+      <c r="E121" s="276"/>
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
@@ -13894,7 +14588,7 @@
     </row>
     <row r="122" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C122" s="271"/>
-      <c r="E122" s="279"/>
+      <c r="E122" s="276"/>
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
@@ -13903,7 +14597,7 @@
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C123" s="271"/>
-      <c r="E123" s="279"/>
+      <c r="E123" s="276"/>
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
